--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_7_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_7_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1856316.422038385</v>
+        <v>1855571.78532233</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1180229.024097045</v>
+        <v>1180229.024097044</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>15.26809192273229</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>9.956053622142033</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>13.47865120333094</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -814,67 +814,67 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="R4" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="V4" t="n">
         <v>13.47865120333094</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="F5" t="n">
-        <v>15.30273751513505</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>15.30273751513505</v>
@@ -981,67 +981,67 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="G6" t="n">
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="H6" t="n">
+      <c r="W6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
     </row>
     <row r="7">
@@ -1060,46 +1060,46 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>13.47865120333094</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,61 +1139,61 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>12.68669557114268</v>
+      </c>
+      <c r="I8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H8" t="n">
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="U9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="S9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="T9" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>34.11888750173132</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>39.58387696184059</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="S10" t="n">
         <v>39.58387696184059</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>256.6228303635119</v>
       </c>
       <c r="C11" t="n">
         <v>239.1618804710389</v>
       </c>
       <c r="D11" t="n">
-        <v>228.5720303207143</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>280.7650344417428</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>181.8785884865757</v>
+        <v>72.57816483844641</v>
       </c>
       <c r="H11" t="n">
-        <v>208.4428801875511</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.95968677975284</v>
+        <v>71.95968677975281</v>
       </c>
       <c r="T11" t="n">
-        <v>94.88145378715521</v>
+        <v>94.88145378715518</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>125.1962016859579</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>201.6412471701662</v>
       </c>
       <c r="W11" t="n">
-        <v>223.1299574174444</v>
+        <v>223.1299574174443</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>243.6200893785004</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.42217234989869</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>46.59748768834706</v>
       </c>
       <c r="D12" t="n">
-        <v>144.6141476370604</v>
+        <v>21.33405426467007</v>
       </c>
       <c r="E12" t="n">
-        <v>31.53406915543229</v>
+        <v>31.53406915543226</v>
       </c>
       <c r="F12" t="n">
-        <v>18.95820109341523</v>
+        <v>18.9582010934152</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0864275203899</v>
+        <v>10.97541622042118</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>166.9078437470573</v>
       </c>
       <c r="T12" t="n">
-        <v>73.01746572050081</v>
+        <v>199.1284770204695</v>
       </c>
       <c r="U12" t="n">
         <v>225.924468288684</v>
       </c>
       <c r="V12" t="n">
-        <v>106.6895758494566</v>
+        <v>229.9696692218461</v>
       </c>
       <c r="W12" t="n">
-        <v>125.583971860951</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>79.66197390350879</v>
       </c>
       <c r="Y12" t="n">
-        <v>79.57168447733571</v>
+        <v>79.57168447733568</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.72096888196864</v>
+        <v>53.72096888196862</v>
       </c>
       <c r="C13" t="n">
-        <v>41.13580979865918</v>
+        <v>41.13580979865915</v>
       </c>
       <c r="D13" t="n">
-        <v>22.5044617182437</v>
+        <v>22.50446171824368</v>
       </c>
       <c r="E13" t="n">
-        <v>20.32295134660052</v>
+        <v>20.32295134660049</v>
       </c>
       <c r="F13" t="n">
-        <v>19.31003672296259</v>
+        <v>19.31003672296256</v>
       </c>
       <c r="G13" t="n">
-        <v>41.66443273815</v>
+        <v>41.66443273814997</v>
       </c>
       <c r="H13" t="n">
-        <v>34.19985626844709</v>
+        <v>34.19985626844706</v>
       </c>
       <c r="I13" t="n">
-        <v>22.85772872106175</v>
+        <v>22.8577287210617</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.49112830990848</v>
+        <v>41.49112830990845</v>
       </c>
       <c r="S13" t="n">
-        <v>94.1493939270765</v>
+        <v>94.14939392707649</v>
       </c>
       <c r="T13" t="n">
-        <v>100.9136544868597</v>
+        <v>100.9136544868596</v>
       </c>
       <c r="U13" t="n">
         <v>160.1962615845037</v>
@@ -1591,10 +1591,10 @@
         <v>160.4119870366223</v>
       </c>
       <c r="X13" t="n">
-        <v>99.5986440890685</v>
+        <v>99.59864408906847</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.47364205212614</v>
+        <v>92.47364205212611</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>256.6228303635119</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>228.5720303207143</v>
+        <v>213.811208829161</v>
       </c>
       <c r="E14" t="n">
-        <v>255.8193587722931</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>280.7650344417428</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>288.7112271912926</v>
       </c>
       <c r="H14" t="n">
-        <v>108.2151223578359</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.84043965254318</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.95968677975284</v>
+        <v>71.95968677975281</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>94.88145378715519</v>
       </c>
       <c r="U14" t="n">
         <v>125.1962016859579</v>
       </c>
       <c r="V14" t="n">
-        <v>201.6412471701663</v>
+        <v>201.6412471701662</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>223.1299574174443</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>243.6200893785004</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>40.42217234989866</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>46.59748768834706</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>154.8141625278218</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>18.9582010934152</v>
       </c>
       <c r="G15" t="n">
-        <v>24.50301006461023</v>
+        <v>10.97541622042118</v>
       </c>
       <c r="H15" t="n">
-        <v>109.7524995282011</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>40.79683244708864</v>
+        <v>166.9078437470573</v>
       </c>
       <c r="T15" t="n">
-        <v>73.01746572050081</v>
+        <v>73.01746572050078</v>
       </c>
       <c r="U15" t="n">
-        <v>99.81345698871533</v>
+        <v>225.924468288684</v>
       </c>
       <c r="V15" t="n">
-        <v>106.6895758494566</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>125.583971860951</v>
+        <v>125.5839718609509</v>
       </c>
       <c r="X15" t="n">
-        <v>79.66197390350882</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>79.57168447733571</v>
+        <v>79.57168447733568</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.72096888196864</v>
+        <v>53.72096888196862</v>
       </c>
       <c r="C16" t="n">
-        <v>41.13580979865918</v>
+        <v>41.13580979865915</v>
       </c>
       <c r="D16" t="n">
-        <v>22.5044617182437</v>
+        <v>22.50446171824368</v>
       </c>
       <c r="E16" t="n">
-        <v>20.32295134660052</v>
+        <v>20.32295134660049</v>
       </c>
       <c r="F16" t="n">
-        <v>19.31003672296259</v>
+        <v>19.31003672296256</v>
       </c>
       <c r="G16" t="n">
-        <v>41.66443273815</v>
+        <v>41.66443273814998</v>
       </c>
       <c r="H16" t="n">
-        <v>34.19985626844708</v>
+        <v>34.19985626844705</v>
       </c>
       <c r="I16" t="n">
-        <v>22.85772872106175</v>
+        <v>22.85772872106172</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.49112830990848</v>
+        <v>41.49112830990845</v>
       </c>
       <c r="S16" t="n">
-        <v>94.1493939270765</v>
+        <v>94.14939392707647</v>
       </c>
       <c r="T16" t="n">
-        <v>100.9136544868597</v>
+        <v>100.9136544868596</v>
       </c>
       <c r="U16" t="n">
-        <v>160.1962615845037</v>
+        <v>160.1962615845036</v>
       </c>
       <c r="V16" t="n">
         <v>126.0266320238593</v>
@@ -1828,10 +1828,10 @@
         <v>160.4119870366223</v>
       </c>
       <c r="X16" t="n">
-        <v>99.5986440890685</v>
+        <v>99.59864408906847</v>
       </c>
       <c r="Y16" t="n">
-        <v>92.47364205212614</v>
+        <v>92.47364205212611</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>149.7046509581516</v>
+        <v>149.7046509581515</v>
       </c>
       <c r="C17" t="n">
-        <v>132.2437010656786</v>
+        <v>132.2437010656785</v>
       </c>
       <c r="D17" t="n">
-        <v>121.653850915354</v>
+        <v>121.6538509153535</v>
       </c>
       <c r="E17" t="n">
         <v>148.9011793669328</v>
       </c>
       <c r="F17" t="n">
-        <v>173.8468550363825</v>
+        <v>173.8468550363824</v>
       </c>
       <c r="G17" t="n">
-        <v>181.7930477859323</v>
+        <v>181.7930477859322</v>
       </c>
       <c r="H17" t="n">
-        <v>101.5247007821908</v>
+        <v>101.5247007821907</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>18.27802228059765</v>
+        <v>18.27802228059756</v>
       </c>
       <c r="V17" t="n">
-        <v>94.72306776480596</v>
+        <v>94.72306776480588</v>
       </c>
       <c r="W17" t="n">
-        <v>116.2117780120841</v>
+        <v>116.211778012084</v>
       </c>
       <c r="X17" t="n">
-        <v>136.7019099731398</v>
+        <v>136.70190997314</v>
       </c>
       <c r="Y17" t="n">
         <v>153.2087479507246</v>
@@ -1923,16 +1923,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.54508155254207</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>84.19572457470093</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>163.6017808469982</v>
       </c>
       <c r="U18" t="n">
-        <v>146.1535123980265</v>
+        <v>225.924468288684</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>18.66579245559058</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>159.6106909642912</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>212.8887731434344</v>
+        <v>53.2780821791433</v>
       </c>
       <c r="V19" t="n">
-        <v>19.10845261849906</v>
+        <v>19.10845261849897</v>
       </c>
       <c r="W19" t="n">
-        <v>53.49380763126206</v>
+        <v>53.49380763126197</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>149.7046509581516</v>
+        <v>149.7046509581515</v>
       </c>
       <c r="C20" t="n">
-        <v>132.2437010656786</v>
+        <v>132.2437010656785</v>
       </c>
       <c r="D20" t="n">
-        <v>121.653850915354</v>
+        <v>121.6538509153539</v>
       </c>
       <c r="E20" t="n">
         <v>148.9011793669328</v>
       </c>
       <c r="F20" t="n">
-        <v>173.8468550363825</v>
+        <v>173.8468550363824</v>
       </c>
       <c r="G20" t="n">
-        <v>181.7930477859323</v>
+        <v>181.7930477859322</v>
       </c>
       <c r="H20" t="n">
-        <v>101.5247007821906</v>
+        <v>101.5247007821907</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>18.27802228059765</v>
+        <v>18.27802228059756</v>
       </c>
       <c r="V20" t="n">
-        <v>94.72306776480596</v>
+        <v>94.72306776480588</v>
       </c>
       <c r="W20" t="n">
-        <v>116.2117780120841</v>
+        <v>116.211778012084</v>
       </c>
       <c r="X20" t="n">
-        <v>136.7019099731401</v>
+        <v>136.70190997314</v>
       </c>
       <c r="Y20" t="n">
         <v>153.2087479507246</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>32.14005396405187</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2169,13 +2169,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.7524995282011</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>199.1284770204695</v>
       </c>
       <c r="U21" t="n">
-        <v>68.13734648297061</v>
+        <v>225.924468288684</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>159.6106909642912</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>67.46772512050316</v>
+        <v>53.2780821791433</v>
       </c>
       <c r="V22" t="n">
-        <v>19.10845261849906</v>
+        <v>19.10845261849897</v>
       </c>
       <c r="W22" t="n">
-        <v>53.49380763126206</v>
+        <v>53.49380763126197</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>149.7046509581516</v>
+        <v>149.7046509581515</v>
       </c>
       <c r="C23" t="n">
-        <v>132.2437010656786</v>
+        <v>132.2437010656785</v>
       </c>
       <c r="D23" t="n">
-        <v>121.653850915354</v>
+        <v>121.6538509153539</v>
       </c>
       <c r="E23" t="n">
         <v>148.9011793669328</v>
       </c>
       <c r="F23" t="n">
-        <v>173.8468550363825</v>
+        <v>173.8468550363824</v>
       </c>
       <c r="G23" t="n">
-        <v>181.7930477859323</v>
+        <v>181.7930477859322</v>
       </c>
       <c r="H23" t="n">
-        <v>101.5247007821908</v>
+        <v>101.5247007821907</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>18.27802228059765</v>
+        <v>18.27802228059755</v>
       </c>
       <c r="V23" t="n">
-        <v>94.72306776480596</v>
+        <v>94.72306776480588</v>
       </c>
       <c r="W23" t="n">
-        <v>116.2117780120841</v>
+        <v>116.211778012084</v>
       </c>
       <c r="X23" t="n">
-        <v>136.7019099731401</v>
+        <v>136.70190997314</v>
       </c>
       <c r="Y23" t="n">
         <v>153.2087479507246</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>59.72705156673204</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.7524995282011</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>199.1284770204695</v>
       </c>
       <c r="U24" t="n">
-        <v>33.92779215588082</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>18.66579245559058</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>159.610690964291</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>159.6106909642912</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>53.27808217914339</v>
+        <v>53.2780821791433</v>
       </c>
       <c r="V25" t="n">
-        <v>19.10845261849906</v>
+        <v>19.10845261849897</v>
       </c>
       <c r="W25" t="n">
-        <v>53.49380763126206</v>
+        <v>53.49380763126197</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.90951483878727</v>
+        <v>46.90951483878652</v>
       </c>
       <c r="T26" t="n">
-        <v>69.83128184618889</v>
+        <v>69.8312818461889</v>
       </c>
       <c r="U26" t="n">
         <v>100.1460297449916</v>
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>142.5405040365093</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>21.54731574738076</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>6.483897214465969</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>84.19572457470093</v>
       </c>
       <c r="S27" t="n">
-        <v>152.7232526575469</v>
+        <v>166.9078437470573</v>
       </c>
       <c r="T27" t="n">
-        <v>47.96729377953449</v>
+        <v>199.1284770204695</v>
       </c>
       <c r="U27" t="n">
-        <v>74.76328504774901</v>
+        <v>225.924468288684</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2843,7 +2843,7 @@
         <v>46.90951483878652</v>
       </c>
       <c r="T29" t="n">
-        <v>69.8312818461889</v>
+        <v>69.83128184618889</v>
       </c>
       <c r="U29" t="n">
         <v>100.1460297449916</v>
@@ -2871,16 +2871,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>21.54731574738076</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>130.8191466497357</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>6.483897214465969</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>127.1685036275769</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.54508155254207</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>84.19572457470093</v>
       </c>
       <c r="S30" t="n">
         <v>166.9078437470573</v>
@@ -2931,7 +2931,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>100.5337999199846</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -3111,19 +3111,19 @@
         <v>15.26529934972913</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>71.56144211554091</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0864275203899</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.7524995282011</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>80.54508155254207</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>84.19572457470093</v>
       </c>
       <c r="S33" t="n">
         <v>166.9078437470573</v>
@@ -3162,19 +3162,19 @@
         <v>199.1284770204695</v>
       </c>
       <c r="U33" t="n">
-        <v>122.4687206851323</v>
+        <v>225.924468288684</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>94.251783522333</v>
       </c>
       <c r="X33" t="n">
-        <v>48.32978556489087</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>48.23949613871775</v>
       </c>
     </row>
     <row r="34">
@@ -3266,22 +3266,22 @@
         <v>178.7112570264254</v>
       </c>
       <c r="C35" t="n">
-        <v>161.2503071339524</v>
+        <v>161.2503071339523</v>
       </c>
       <c r="D35" t="n">
-        <v>150.6604569836278</v>
+        <v>150.6604569836277</v>
       </c>
       <c r="E35" t="n">
         <v>177.9077854352066</v>
       </c>
       <c r="F35" t="n">
-        <v>202.8534611046563</v>
+        <v>202.8534611046562</v>
       </c>
       <c r="G35" t="n">
-        <v>210.7996538542061</v>
+        <v>210.799653854206</v>
       </c>
       <c r="H35" t="n">
-        <v>130.5313068504646</v>
+        <v>130.5313068504645</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>16.96988045006874</v>
+        <v>16.96988045006864</v>
       </c>
       <c r="U35" t="n">
-        <v>47.28462834887146</v>
+        <v>47.28462834887137</v>
       </c>
       <c r="V35" t="n">
-        <v>123.7296738330798</v>
+        <v>123.7296738330797</v>
       </c>
       <c r="W35" t="n">
-        <v>145.2183840803579</v>
+        <v>145.2183840803578</v>
       </c>
       <c r="X35" t="n">
-        <v>165.7085160414139</v>
+        <v>165.7085160414138</v>
       </c>
       <c r="Y35" t="n">
-        <v>182.2153540189985</v>
+        <v>182.2153540189984</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>124.1476449974081</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3360,7 +3360,7 @@
         <v>137.0864275203899</v>
       </c>
       <c r="H36" t="n">
-        <v>109.7524995282011</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>84.19572457470093</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>22.08502119354237</v>
+        <v>199.1284770204695</v>
       </c>
       <c r="U36" t="n">
         <v>225.924468288684</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.660111140249228</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23782058999002</v>
+        <v>16.23782058998994</v>
       </c>
       <c r="T37" t="n">
-        <v>23.00208114977319</v>
+        <v>23.0020811497731</v>
       </c>
       <c r="U37" t="n">
-        <v>82.28468824741721</v>
+        <v>82.28468824741712</v>
       </c>
       <c r="V37" t="n">
-        <v>48.11505868677287</v>
+        <v>48.11505868677278</v>
       </c>
       <c r="W37" t="n">
-        <v>82.50041369953587</v>
+        <v>82.50041369953578</v>
       </c>
       <c r="X37" t="n">
-        <v>21.68707075198202</v>
+        <v>21.68707075198193</v>
       </c>
       <c r="Y37" t="n">
-        <v>14.56206871503966</v>
+        <v>14.56206871503957</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3503,22 @@
         <v>178.7112570264254</v>
       </c>
       <c r="C38" t="n">
-        <v>161.2503071339524</v>
+        <v>161.2503071339523</v>
       </c>
       <c r="D38" t="n">
-        <v>150.6604569836278</v>
+        <v>150.6604569836277</v>
       </c>
       <c r="E38" t="n">
         <v>177.9077854352066</v>
       </c>
       <c r="F38" t="n">
-        <v>202.8534611046563</v>
+        <v>202.8534611046562</v>
       </c>
       <c r="G38" t="n">
-        <v>210.7996538542061</v>
+        <v>210.799653854206</v>
       </c>
       <c r="H38" t="n">
-        <v>130.5313068504646</v>
+        <v>130.5313068504645</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>16.96988045006873</v>
+        <v>16.96988045006864</v>
       </c>
       <c r="U38" t="n">
-        <v>47.28462834887145</v>
+        <v>47.28462834887137</v>
       </c>
       <c r="V38" t="n">
-        <v>123.7296738330798</v>
+        <v>123.7296738330797</v>
       </c>
       <c r="W38" t="n">
-        <v>145.2183840803579</v>
+        <v>145.2183840803578</v>
       </c>
       <c r="X38" t="n">
-        <v>165.7085160414139</v>
+        <v>165.7085160414138</v>
       </c>
       <c r="Y38" t="n">
-        <v>182.2153540189985</v>
+        <v>182.2153540189984</v>
       </c>
     </row>
     <row r="39">
@@ -3582,22 +3582,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>151.4815729895969</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0864275203899</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.7524995282011</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3633,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.1284770204695</v>
       </c>
       <c r="U39" t="n">
-        <v>71.40194529820634</v>
+        <v>225.924468288684</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23782058999002</v>
+        <v>16.23782058998994</v>
       </c>
       <c r="T40" t="n">
-        <v>23.00208114977319</v>
+        <v>23.0020811497731</v>
       </c>
       <c r="U40" t="n">
-        <v>82.28468824741721</v>
+        <v>82.28468824741712</v>
       </c>
       <c r="V40" t="n">
-        <v>48.11505868677287</v>
+        <v>48.11505868677278</v>
       </c>
       <c r="W40" t="n">
-        <v>82.50041369953587</v>
+        <v>82.50041369953578</v>
       </c>
       <c r="X40" t="n">
-        <v>21.68707075198202</v>
+        <v>21.68707075198193</v>
       </c>
       <c r="Y40" t="n">
-        <v>14.56206871503966</v>
+        <v>14.56206871503957</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>178.7112570264254</v>
+        <v>178.7112570264255</v>
       </c>
       <c r="C41" t="n">
         <v>161.2503071339524</v>
       </c>
       <c r="D41" t="n">
-        <v>150.6604569836278</v>
+        <v>150.6604569836279</v>
       </c>
       <c r="E41" t="n">
-        <v>177.9077854352066</v>
+        <v>177.9077854352067</v>
       </c>
       <c r="F41" t="n">
         <v>202.8534611046563</v>
       </c>
       <c r="G41" t="n">
-        <v>210.7996538542061</v>
+        <v>210.7996538542054</v>
       </c>
       <c r="H41" t="n">
-        <v>130.5313068504646</v>
+        <v>130.5313068504647</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>16.96988045006873</v>
+        <v>16.96988045006876</v>
       </c>
       <c r="U41" t="n">
-        <v>47.28462834887145</v>
+        <v>47.28462834887149</v>
       </c>
       <c r="V41" t="n">
         <v>123.7296738330798</v>
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0864275203899</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.7524995282011</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.54508155254207</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>84.19572457470093</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.9078437470573</v>
       </c>
       <c r="T42" t="n">
-        <v>186.5864891669673</v>
+        <v>199.1284770204695</v>
       </c>
       <c r="U42" t="n">
-        <v>21.90188365162885</v>
+        <v>225.924468288684</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3882,7 +3882,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>55.05266444825177</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23782058999002</v>
+        <v>16.23782058999005</v>
       </c>
       <c r="T43" t="n">
-        <v>23.00208114977319</v>
+        <v>23.00208114977321</v>
       </c>
       <c r="U43" t="n">
-        <v>82.28468824741721</v>
+        <v>82.28468824741724</v>
       </c>
       <c r="V43" t="n">
-        <v>48.11505868677287</v>
+        <v>48.1150586867729</v>
       </c>
       <c r="W43" t="n">
-        <v>82.50041369953587</v>
+        <v>82.5004136995359</v>
       </c>
       <c r="X43" t="n">
-        <v>21.68707075198202</v>
+        <v>21.68707075198205</v>
       </c>
       <c r="Y43" t="n">
-        <v>14.56206871503966</v>
+        <v>14.56206871503969</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>178.7112570264254</v>
+        <v>178.7112570264255</v>
       </c>
       <c r="C44" t="n">
         <v>161.2503071339524</v>
       </c>
       <c r="D44" t="n">
-        <v>150.6604569836278</v>
+        <v>150.6604569836279</v>
       </c>
       <c r="E44" t="n">
-        <v>177.9077854352066</v>
+        <v>177.9077854352067</v>
       </c>
       <c r="F44" t="n">
         <v>202.8534611046563</v>
       </c>
       <c r="G44" t="n">
-        <v>210.7996538542056</v>
+        <v>210.7996538542062</v>
       </c>
       <c r="H44" t="n">
-        <v>130.5313068504646</v>
+        <v>130.5313068504647</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>16.96988045006873</v>
+        <v>16.96988045006876</v>
       </c>
       <c r="U44" t="n">
-        <v>47.28462834887145</v>
+        <v>47.28462834887148</v>
       </c>
       <c r="V44" t="n">
         <v>123.7296738330798</v>
@@ -4056,7 +4056,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>54.13215520643924</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4065,7 +4065,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4101,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>84.19572457470093</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.9078437470573</v>
       </c>
       <c r="T45" t="n">
-        <v>186.5864891669675</v>
+        <v>199.1284770204695</v>
       </c>
       <c r="U45" t="n">
-        <v>21.90188365162885</v>
+        <v>225.924468288684</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>28.77800251237016</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23782058999002</v>
+        <v>16.23782058999005</v>
       </c>
       <c r="T46" t="n">
-        <v>23.00208114977319</v>
+        <v>23.00208114977321</v>
       </c>
       <c r="U46" t="n">
-        <v>82.28468824741721</v>
+        <v>82.28468824741724</v>
       </c>
       <c r="V46" t="n">
-        <v>48.11505868677287</v>
+        <v>48.1150586867729</v>
       </c>
       <c r="W46" t="n">
-        <v>82.50041369953587</v>
+        <v>82.5004136995359</v>
       </c>
       <c r="X46" t="n">
-        <v>21.68707075198202</v>
+        <v>21.68707075198205</v>
       </c>
       <c r="Y46" t="n">
-        <v>14.56206871503966</v>
+        <v>14.56206871503969</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="C2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="D2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="E2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="F2" t="n">
-        <v>44.17383394310966</v>
+        <v>28.75151886964269</v>
       </c>
       <c r="G2" t="n">
-        <v>28.71652332176112</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="H2" t="n">
-        <v>28.71652332176112</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="I2" t="n">
         <v>13.29420824829416</v>
@@ -4331,49 +4331,49 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K2" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="L2" t="n">
         <v>16.37392914119451</v>
       </c>
-      <c r="L2" t="n">
-        <v>30.9115297805728</v>
-      </c>
       <c r="M2" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N2" t="n">
-        <v>30.9115297805728</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O2" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P2" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q2" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R2" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S2" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="U2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="V2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="W2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="X2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="Y2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
     </row>
     <row r="3">
@@ -4386,13 +4386,13 @@
         <v>16.68152962255934</v>
       </c>
       <c r="C3" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D3" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E3" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F3" t="n">
         <v>1.224219001210804</v>
@@ -4410,16 +4410,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K3" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L3" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M3" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N3" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O3" t="n">
         <v>30.9115297805728</v>
@@ -4440,7 +4440,7 @@
         <v>47.59615086525642</v>
       </c>
       <c r="U3" t="n">
-        <v>32.13884024390788</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="V3" t="n">
         <v>32.13884024390788</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C4" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D4" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E4" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F4" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G4" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H4" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I4" t="n">
         <v>1.224219001210804</v>
@@ -4495,10 +4495,10 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M4" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N4" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O4" t="n">
         <v>61.2109500605402</v>
@@ -4507,31 +4507,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="R4" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="S4" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T4" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U4" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="V4" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="W4" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X4" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.13884024390788</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="C5" t="n">
-        <v>32.13884024390788</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="D5" t="n">
-        <v>32.13884024390788</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="E5" t="n">
-        <v>32.13884024390788</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="F5" t="n">
         <v>16.68152962255934</v>
@@ -4568,13 +4568,13 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K5" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L5" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N5" t="n">
         <v>30.9115297805728</v>
@@ -4589,28 +4589,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R5" t="n">
-        <v>47.59615086525642</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S5" t="n">
-        <v>32.13884024390788</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T5" t="n">
-        <v>32.13884024390788</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U5" t="n">
-        <v>32.13884024390788</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V5" t="n">
-        <v>32.13884024390788</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W5" t="n">
-        <v>32.13884024390788</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X5" t="n">
-        <v>32.13884024390788</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="Y5" t="n">
-        <v>32.13884024390788</v>
+        <v>45.75363943919166</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C6" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D6" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E6" t="n">
-        <v>48.35028351804213</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F6" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H6" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I6" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J6" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K6" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L6" t="n">
         <v>16.37392914119451</v>
       </c>
       <c r="M6" t="n">
+        <v>16.37392914119451</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16.37392914119451</v>
+      </c>
+      <c r="O6" t="n">
         <v>31.52363928117821</v>
       </c>
-      <c r="N6" t="n">
-        <v>46.6733494211619</v>
-      </c>
-      <c r="O6" t="n">
-        <v>61.2109500605402</v>
-      </c>
       <c r="P6" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="Q6" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V6" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W6" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="X6" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="Y6" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E7" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F7" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G7" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H7" t="n">
         <v>1.224219001210804</v>
@@ -4747,28 +4747,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R7" t="n">
-        <v>61.2109500605402</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="S7" t="n">
-        <v>61.2109500605402</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="T7" t="n">
-        <v>45.75363943919166</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="U7" t="n">
-        <v>45.75363943919166</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="V7" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E8" t="n">
-        <v>123.1178524655551</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F8" t="n">
-        <v>83.13413836268582</v>
+        <v>71.4225788924203</v>
       </c>
       <c r="G8" t="n">
+        <v>55.96526827107176</v>
+      </c>
+      <c r="H8" t="n">
         <v>43.15042425981653</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.166710156947247</v>
       </c>
       <c r="I8" t="n">
         <v>3.166710156947247</v>
@@ -4811,7 +4811,7 @@
         <v>42.35474834916943</v>
       </c>
       <c r="M8" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N8" t="n">
         <v>119.1474696551402</v>
@@ -4826,28 +4826,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.920842809732961</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C9" t="n">
-        <v>3.920842809732961</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D9" t="n">
-        <v>3.920842809732961</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E9" t="n">
-        <v>3.920842809732961</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F9" t="n">
-        <v>3.920842809732961</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G9" t="n">
-        <v>3.920842809732961</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L9" t="n">
-        <v>81.54278654139161</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M9" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="N9" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="O9" t="n">
         <v>119.1474696551402</v>
       </c>
-      <c r="N9" t="n">
-        <v>158.3355078473624</v>
-      </c>
-      <c r="O9" t="n">
-        <v>158.3355078473624</v>
-      </c>
       <c r="P9" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q9" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S9" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T9" t="n">
-        <v>38.38436553875449</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U9" t="n">
-        <v>38.38436553875449</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V9" t="n">
-        <v>38.38436553875449</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W9" t="n">
-        <v>38.38436553875449</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X9" t="n">
-        <v>3.920842809732961</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.920842809732961</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.22875997826529</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C10" t="n">
-        <v>53.22875997826529</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D10" t="n">
-        <v>53.22875997826529</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E10" t="n">
-        <v>53.22875997826529</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F10" t="n">
-        <v>53.22875997826529</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G10" t="n">
-        <v>53.22875997826529</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H10" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I10" t="n">
         <v>3.166710156947247</v>
@@ -4978,34 +4978,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R10" t="n">
-        <v>93.21247408113457</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S10" t="n">
-        <v>53.22875997826529</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T10" t="n">
-        <v>53.22875997826529</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U10" t="n">
-        <v>53.22875997826529</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V10" t="n">
-        <v>53.22875997826529</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W10" t="n">
-        <v>53.22875997826529</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X10" t="n">
-        <v>53.22875997826529</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.22875997826529</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1181.838626950433</v>
+        <v>346.4039111947384</v>
       </c>
       <c r="C11" t="n">
-        <v>940.2609699089792</v>
+        <v>104.8262541532849</v>
       </c>
       <c r="D11" t="n">
-        <v>709.3801312011869</v>
+        <v>104.8262541532849</v>
       </c>
       <c r="E11" t="n">
-        <v>709.3801312011869</v>
+        <v>104.8262541532849</v>
       </c>
       <c r="F11" t="n">
-        <v>425.7790863105377</v>
+        <v>104.8262541532849</v>
       </c>
       <c r="G11" t="n">
-        <v>242.0633403645018</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="H11" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="I11" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="J11" t="n">
-        <v>60.05911656485862</v>
+        <v>136.9543761340356</v>
       </c>
       <c r="K11" t="n">
-        <v>223.5841874067849</v>
+        <v>300.4794469759619</v>
       </c>
       <c r="L11" t="n">
-        <v>478.7281252043059</v>
+        <v>555.6233847734829</v>
       </c>
       <c r="M11" t="n">
-        <v>779.2314624507299</v>
+        <v>856.1267220199069</v>
       </c>
       <c r="N11" t="n">
-        <v>1069.965260314555</v>
+        <v>1146.860519883732</v>
       </c>
       <c r="O11" t="n">
-        <v>1299.309303566829</v>
+        <v>1376.204563136006</v>
       </c>
       <c r="P11" t="n">
-        <v>1457.374755513142</v>
+        <v>1534.270015082319</v>
       </c>
       <c r="Q11" t="n">
-        <v>1569.388037169069</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="R11" t="n">
-        <v>1575.748826934627</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="S11" t="n">
-        <v>1503.062274631846</v>
+        <v>1503.062274631845</v>
       </c>
       <c r="T11" t="n">
-        <v>1407.222422321589</v>
+        <v>1407.222422321588</v>
       </c>
       <c r="U11" t="n">
-        <v>1407.222422321589</v>
+        <v>1280.761612537792</v>
       </c>
       <c r="V11" t="n">
-        <v>1407.222422321589</v>
+        <v>1077.083585093179</v>
       </c>
       <c r="W11" t="n">
-        <v>1181.838626950433</v>
+        <v>851.6997897220235</v>
       </c>
       <c r="X11" t="n">
-        <v>1181.838626950433</v>
+        <v>605.6188913599019</v>
       </c>
       <c r="Y11" t="n">
-        <v>1181.838626950433</v>
+        <v>605.6188913599019</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>541.5163345130496</v>
+        <v>162.2212678743347</v>
       </c>
       <c r="C12" t="n">
-        <v>367.0633052319226</v>
+        <v>115.153098492166</v>
       </c>
       <c r="D12" t="n">
-        <v>220.9884086288313</v>
+        <v>93.60354872987298</v>
       </c>
       <c r="E12" t="n">
-        <v>189.135813522334</v>
+        <v>61.75095362337574</v>
       </c>
       <c r="F12" t="n">
-        <v>169.9861154481773</v>
+        <v>42.60125554921898</v>
       </c>
       <c r="G12" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="H12" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="I12" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="J12" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="K12" t="n">
-        <v>31.51497653869254</v>
+        <v>197.9717325874728</v>
       </c>
       <c r="L12" t="n">
-        <v>316.7410233726724</v>
+        <v>483.1977794214527</v>
       </c>
       <c r="M12" t="n">
-        <v>701.5655884247353</v>
+        <v>868.0223444735155</v>
       </c>
       <c r="N12" t="n">
-        <v>1091.563423091055</v>
+        <v>1258.020179139835</v>
       </c>
       <c r="O12" t="n">
-        <v>1400.873321541497</v>
+        <v>1567.330077590277</v>
       </c>
       <c r="P12" t="n">
-        <v>1473.865173706345</v>
+        <v>1567.330077590277</v>
       </c>
       <c r="Q12" t="n">
-        <v>1575.748826934627</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="R12" t="n">
-        <v>1575.748826934627</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="S12" t="n">
-        <v>1407.155045371943</v>
+        <v>1407.155045371942</v>
       </c>
       <c r="T12" t="n">
-        <v>1333.400029492649</v>
+        <v>1206.01516959369</v>
       </c>
       <c r="U12" t="n">
-        <v>1105.193495867716</v>
+        <v>977.8086359687566</v>
       </c>
       <c r="V12" t="n">
-        <v>997.4262475349312</v>
+        <v>745.5160407951746</v>
       </c>
       <c r="W12" t="n">
-        <v>870.5737507056879</v>
+        <v>491.278684066973</v>
       </c>
       <c r="X12" t="n">
-        <v>662.722250500155</v>
+        <v>410.8120437603984</v>
       </c>
       <c r="Y12" t="n">
-        <v>582.3468116341594</v>
+        <v>330.4366048944028</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>235.550610189323</v>
+        <v>235.5506101893241</v>
       </c>
       <c r="C13" t="n">
-        <v>193.9992871603745</v>
+        <v>193.9992871603755</v>
       </c>
       <c r="D13" t="n">
-        <v>171.2675076469972</v>
+        <v>171.267507646998</v>
       </c>
       <c r="E13" t="n">
-        <v>150.7392739635623</v>
+        <v>150.7392739635632</v>
       </c>
       <c r="F13" t="n">
-        <v>131.2341863646102</v>
+        <v>131.2341863646111</v>
       </c>
       <c r="G13" t="n">
-        <v>89.14890077051939</v>
+        <v>89.14890077051956</v>
       </c>
       <c r="H13" t="n">
-        <v>54.60359140845162</v>
+        <v>54.60359140845182</v>
       </c>
       <c r="I13" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="J13" t="n">
-        <v>79.02525308672043</v>
+        <v>79.02525308672044</v>
       </c>
       <c r="K13" t="n">
-        <v>206.6192299115842</v>
+        <v>206.6192299115843</v>
       </c>
       <c r="L13" t="n">
-        <v>390.5070377658449</v>
+        <v>390.507037765845</v>
       </c>
       <c r="M13" t="n">
-        <v>587.9932569026557</v>
+        <v>587.9932569026561</v>
       </c>
       <c r="N13" t="n">
-        <v>789.1869631706259</v>
+        <v>789.1869631706263</v>
       </c>
       <c r="O13" t="n">
-        <v>968.5364294383256</v>
+        <v>968.5364294383261</v>
       </c>
       <c r="P13" t="n">
-        <v>1116.499441413782</v>
+        <v>1116.499441413783</v>
       </c>
       <c r="Q13" t="n">
         <v>1173.916582302448</v>
@@ -5227,22 +5227,22 @@
         <v>1036.905953780241</v>
       </c>
       <c r="T13" t="n">
-        <v>934.9729694500796</v>
+        <v>934.9729694500803</v>
       </c>
       <c r="U13" t="n">
-        <v>773.1585638091667</v>
+        <v>773.1585638091675</v>
       </c>
       <c r="V13" t="n">
-        <v>645.858935502238</v>
+        <v>645.8589355022389</v>
       </c>
       <c r="W13" t="n">
-        <v>483.8266253642356</v>
+        <v>483.8266253642365</v>
       </c>
       <c r="X13" t="n">
-        <v>383.2219343651764</v>
+        <v>383.2219343651774</v>
       </c>
       <c r="Y13" t="n">
-        <v>289.8142151206046</v>
+        <v>289.8142151206055</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>913.7084572382746</v>
+        <v>605.618891359902</v>
       </c>
       <c r="C14" t="n">
-        <v>913.7084572382746</v>
+        <v>605.618891359902</v>
       </c>
       <c r="D14" t="n">
-        <v>682.8276185304824</v>
+        <v>389.6479733506478</v>
       </c>
       <c r="E14" t="n">
-        <v>424.4242258311963</v>
+        <v>389.6479733506478</v>
       </c>
       <c r="F14" t="n">
-        <v>140.823180940547</v>
+        <v>389.6479733506478</v>
       </c>
       <c r="G14" t="n">
-        <v>140.823180940547</v>
+        <v>98.02047113722099</v>
       </c>
       <c r="H14" t="n">
-        <v>31.51497653869254</v>
+        <v>98.02047113722099</v>
       </c>
       <c r="I14" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="J14" t="n">
-        <v>130.5935863684784</v>
+        <v>136.9543761340356</v>
       </c>
       <c r="K14" t="n">
-        <v>294.1186572104047</v>
+        <v>300.4794469759619</v>
       </c>
       <c r="L14" t="n">
-        <v>549.2625950079257</v>
+        <v>555.6233847734829</v>
       </c>
       <c r="M14" t="n">
-        <v>849.7659322543497</v>
+        <v>856.1267220199069</v>
       </c>
       <c r="N14" t="n">
-        <v>1140.499730118174</v>
+        <v>1146.860519883732</v>
       </c>
       <c r="O14" t="n">
-        <v>1369.843773370449</v>
+        <v>1376.204563136006</v>
       </c>
       <c r="P14" t="n">
-        <v>1527.909225316762</v>
+        <v>1534.270015082319</v>
       </c>
       <c r="Q14" t="n">
-        <v>1569.388037169069</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="R14" t="n">
-        <v>1575.748826934627</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="S14" t="n">
         <v>1503.062274631846</v>
       </c>
       <c r="T14" t="n">
-        <v>1503.062274631846</v>
+        <v>1407.222422321588</v>
       </c>
       <c r="U14" t="n">
-        <v>1376.60146484805</v>
+        <v>1280.761612537792</v>
       </c>
       <c r="V14" t="n">
-        <v>1172.923437403438</v>
+        <v>1077.083585093179</v>
       </c>
       <c r="W14" t="n">
-        <v>1172.923437403438</v>
+        <v>851.6997897220236</v>
       </c>
       <c r="X14" t="n">
-        <v>1172.923437403438</v>
+        <v>605.618891359902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1172.923437403438</v>
+        <v>605.618891359902</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>796.2860543109659</v>
+        <v>414.1314746140905</v>
       </c>
       <c r="C15" t="n">
-        <v>621.833025029839</v>
+        <v>367.0633052319217</v>
       </c>
       <c r="D15" t="n">
-        <v>472.8986153685877</v>
+        <v>218.1288955706705</v>
       </c>
       <c r="E15" t="n">
-        <v>313.6611603631322</v>
+        <v>61.75095362337574</v>
       </c>
       <c r="F15" t="n">
-        <v>167.1266023900172</v>
+        <v>42.60125554921898</v>
       </c>
       <c r="G15" t="n">
-        <v>142.3760871732391</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="H15" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="I15" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="J15" t="n">
-        <v>31.51497653869254</v>
+        <v>54.82229110833842</v>
       </c>
       <c r="K15" t="n">
-        <v>31.51497653869254</v>
+        <v>54.82229110833842</v>
       </c>
       <c r="L15" t="n">
-        <v>316.7410233726724</v>
+        <v>158.4874804661016</v>
       </c>
       <c r="M15" t="n">
-        <v>701.5655884247353</v>
+        <v>543.3120455181645</v>
       </c>
       <c r="N15" t="n">
-        <v>1091.563423091055</v>
+        <v>933.3098801844844</v>
       </c>
       <c r="O15" t="n">
-        <v>1400.873321541497</v>
+        <v>1242.619778634926</v>
       </c>
       <c r="P15" t="n">
-        <v>1575.748826934627</v>
+        <v>1473.865173706344</v>
       </c>
       <c r="Q15" t="n">
-        <v>1575.748826934627</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="R15" t="n">
-        <v>1575.748826934627</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="S15" t="n">
-        <v>1534.539905270901</v>
+        <v>1407.155045371942</v>
       </c>
       <c r="T15" t="n">
-        <v>1460.784889391607</v>
+        <v>1333.400029492648</v>
       </c>
       <c r="U15" t="n">
-        <v>1359.963215665632</v>
+        <v>1105.193495867715</v>
       </c>
       <c r="V15" t="n">
-        <v>1252.195967332848</v>
+        <v>870.0413876359721</v>
       </c>
       <c r="W15" t="n">
-        <v>1125.343470503604</v>
+        <v>743.1888908067288</v>
       </c>
       <c r="X15" t="n">
-        <v>1044.87683019703</v>
+        <v>535.3373906011959</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.501391331034</v>
+        <v>454.9619517352003</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>235.5506101893237</v>
+        <v>235.5506101893235</v>
       </c>
       <c r="C16" t="n">
-        <v>193.999287160375</v>
+        <v>193.9992871603748</v>
       </c>
       <c r="D16" t="n">
-        <v>171.2675076469976</v>
+        <v>171.2675076469974</v>
       </c>
       <c r="E16" t="n">
-        <v>150.7392739635627</v>
+        <v>150.7392739635625</v>
       </c>
       <c r="F16" t="n">
-        <v>131.2341863646106</v>
+        <v>131.2341863646105</v>
       </c>
       <c r="G16" t="n">
-        <v>89.14890077051965</v>
+        <v>89.14890077051956</v>
       </c>
       <c r="H16" t="n">
-        <v>54.60359140845188</v>
+        <v>54.60359140845183</v>
       </c>
       <c r="I16" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="J16" t="n">
         <v>79.02525308672043</v>
       </c>
       <c r="K16" t="n">
-        <v>206.6192299115842</v>
+        <v>206.6192299115843</v>
       </c>
       <c r="L16" t="n">
         <v>390.5070377658449</v>
       </c>
       <c r="M16" t="n">
-        <v>587.9932569026562</v>
+        <v>587.993256902656</v>
       </c>
       <c r="N16" t="n">
-        <v>789.1869631706263</v>
+        <v>789.1869631706259</v>
       </c>
       <c r="O16" t="n">
-        <v>968.5364294383262</v>
+        <v>968.5364294383257</v>
       </c>
       <c r="P16" t="n">
-        <v>1116.499441413783</v>
+        <v>1116.499441413782</v>
       </c>
       <c r="Q16" t="n">
         <v>1173.916582302448</v>
@@ -5464,22 +5464,22 @@
         <v>1036.905953780241</v>
       </c>
       <c r="T16" t="n">
-        <v>934.97296945008</v>
+        <v>934.9729694500796</v>
       </c>
       <c r="U16" t="n">
-        <v>773.1585638091672</v>
+        <v>773.1585638091668</v>
       </c>
       <c r="V16" t="n">
-        <v>645.8589355022385</v>
+        <v>645.8589355022382</v>
       </c>
       <c r="W16" t="n">
-        <v>483.8266253642362</v>
+        <v>483.8266253642358</v>
       </c>
       <c r="X16" t="n">
-        <v>383.221934365177</v>
+        <v>383.2219343651767</v>
       </c>
       <c r="Y16" t="n">
-        <v>289.8142151206052</v>
+        <v>289.8142151206049</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>900.164809824017</v>
+        <v>900.1648098240159</v>
       </c>
       <c r="C17" t="n">
-        <v>766.585313798079</v>
+        <v>766.585313798078</v>
       </c>
       <c r="D17" t="n">
-        <v>643.7026361058022</v>
+        <v>643.7026361058017</v>
       </c>
       <c r="E17" t="n">
-        <v>493.2974044220317</v>
+        <v>493.2974044220313</v>
       </c>
       <c r="F17" t="n">
-        <v>317.6945205468978</v>
+        <v>317.6945205468975</v>
       </c>
       <c r="G17" t="n">
-        <v>134.0651793489863</v>
+        <v>134.0651793489862</v>
       </c>
       <c r="H17" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="I17" t="n">
-        <v>72.18193889398145</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="J17" t="n">
-        <v>100.7260789201475</v>
+        <v>60.0591165648586</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2511497620739</v>
+        <v>223.5841874067849</v>
       </c>
       <c r="L17" t="n">
-        <v>519.3950875595949</v>
+        <v>478.7281252043059</v>
       </c>
       <c r="M17" t="n">
-        <v>819.8984248060187</v>
+        <v>779.2314624507299</v>
       </c>
       <c r="N17" t="n">
-        <v>1110.632222669843</v>
+        <v>1069.965260314555</v>
       </c>
       <c r="O17" t="n">
-        <v>1339.976265922118</v>
+        <v>1299.309303566829</v>
       </c>
       <c r="P17" t="n">
-        <v>1498.041717868431</v>
+        <v>1534.270015082319</v>
       </c>
       <c r="Q17" t="n">
-        <v>1539.520529720738</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="R17" t="n">
-        <v>1539.520529720738</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="S17" t="n">
-        <v>1574.12943742009</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="T17" t="n">
-        <v>1575.748826934627</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="U17" t="n">
-        <v>1557.286178166346</v>
+        <v>1557.286178166345</v>
       </c>
       <c r="V17" t="n">
-        <v>1461.606311737249</v>
+        <v>1461.606311737248</v>
       </c>
       <c r="W17" t="n">
-        <v>1344.220677381609</v>
+        <v>1344.220677381608</v>
       </c>
       <c r="X17" t="n">
-        <v>1206.137940035003</v>
+        <v>1206.137940035002</v>
       </c>
       <c r="Y17" t="n">
-        <v>1051.381628973665</v>
+        <v>1051.381628973664</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>354.9024154810708</v>
+        <v>259.4082027466985</v>
       </c>
       <c r="C18" t="n">
-        <v>180.4493861999438</v>
+        <v>259.4082027466985</v>
       </c>
       <c r="D18" t="n">
-        <v>31.51497653869254</v>
+        <v>259.4082027466985</v>
       </c>
       <c r="E18" t="n">
-        <v>31.51497653869254</v>
+        <v>259.4082027466985</v>
       </c>
       <c r="F18" t="n">
-        <v>31.51497653869254</v>
+        <v>112.8736447735835</v>
       </c>
       <c r="G18" t="n">
-        <v>31.51497653869254</v>
+        <v>112.8736447735835</v>
       </c>
       <c r="H18" t="n">
-        <v>31.51497653869254</v>
+        <v>112.8736447735835</v>
       </c>
       <c r="I18" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="J18" t="n">
-        <v>54.82229110833844</v>
+        <v>54.82229110833842</v>
       </c>
       <c r="K18" t="n">
         <v>221.2790471571187</v>
       </c>
       <c r="L18" t="n">
-        <v>221.2790471571187</v>
+        <v>506.5050939910985</v>
       </c>
       <c r="M18" t="n">
-        <v>606.1036122091816</v>
+        <v>852.6219439686063</v>
       </c>
       <c r="N18" t="n">
-        <v>996.1014468755018</v>
+        <v>1242.619778634926</v>
       </c>
       <c r="O18" t="n">
-        <v>1305.411345325944</v>
+        <v>1242.619778634926</v>
       </c>
       <c r="P18" t="n">
-        <v>1536.656740397362</v>
+        <v>1473.865173706344</v>
       </c>
       <c r="Q18" t="n">
-        <v>1575.748826934627</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="R18" t="n">
-        <v>1575.748826934627</v>
+        <v>1490.702640495534</v>
       </c>
       <c r="S18" t="n">
-        <v>1575.748826934627</v>
+        <v>1490.702640495534</v>
       </c>
       <c r="T18" t="n">
-        <v>1575.748826934627</v>
+        <v>1325.448316407657</v>
       </c>
       <c r="U18" t="n">
-        <v>1428.11901643157</v>
+        <v>1097.241782782724</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.966908199827</v>
+        <v>862.0896745509812</v>
       </c>
       <c r="W18" t="n">
-        <v>938.7295514716257</v>
+        <v>843.2353387372533</v>
       </c>
       <c r="X18" t="n">
-        <v>730.8780512660928</v>
+        <v>635.3838385317205</v>
       </c>
       <c r="Y18" t="n">
-        <v>523.1177525011389</v>
+        <v>427.6235397667666</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="C19" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="D19" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="E19" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="F19" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="G19" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="H19" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="I19" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="J19" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="K19" t="n">
-        <v>34.25905217658738</v>
+        <v>34.25905217658736</v>
       </c>
       <c r="L19" t="n">
-        <v>93.29695884387905</v>
+        <v>93.29695884387903</v>
       </c>
       <c r="M19" t="n">
         <v>165.9332767937211</v>
@@ -5686,7 +5686,7 @@
         <v>242.2770818747223</v>
       </c>
       <c r="O19" t="n">
-        <v>296.7766469554532</v>
+        <v>296.7766469554531</v>
       </c>
       <c r="P19" t="n">
         <v>319.8897577439405</v>
@@ -5695,28 +5695,28 @@
         <v>319.8897577439405</v>
       </c>
       <c r="R19" t="n">
-        <v>319.8897577439405</v>
+        <v>158.6668375779898</v>
       </c>
       <c r="S19" t="n">
-        <v>319.8897577439405</v>
+        <v>158.6668375779898</v>
       </c>
       <c r="T19" t="n">
-        <v>319.8897577439405</v>
+        <v>158.6668375779898</v>
       </c>
       <c r="U19" t="n">
-        <v>104.8505929525927</v>
+        <v>104.8505929525925</v>
       </c>
       <c r="V19" t="n">
-        <v>85.54912566117947</v>
+        <v>85.54912566117937</v>
       </c>
       <c r="W19" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="X19" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
     </row>
     <row r="20">
@@ -5726,64 +5726,64 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>900.1648098240165</v>
+        <v>900.164809824017</v>
       </c>
       <c r="C20" t="n">
-        <v>766.5853137980787</v>
+        <v>766.585313798079</v>
       </c>
       <c r="D20" t="n">
-        <v>643.702636105802</v>
+        <v>643.7026361058023</v>
       </c>
       <c r="E20" t="n">
-        <v>493.2974044220314</v>
+        <v>493.2974044220318</v>
       </c>
       <c r="F20" t="n">
-        <v>317.6945205468976</v>
+        <v>317.694520546898</v>
       </c>
       <c r="G20" t="n">
-        <v>134.065179348986</v>
+        <v>134.0651793489862</v>
       </c>
       <c r="H20" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="I20" t="n">
-        <v>72.18193889398145</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="J20" t="n">
-        <v>100.7260789201475</v>
+        <v>60.0591165648586</v>
       </c>
       <c r="K20" t="n">
-        <v>264.2511497620739</v>
+        <v>223.5841874067849</v>
       </c>
       <c r="L20" t="n">
-        <v>519.3950875595949</v>
+        <v>478.7281252043059</v>
       </c>
       <c r="M20" t="n">
-        <v>819.8984248060187</v>
+        <v>779.2314624507299</v>
       </c>
       <c r="N20" t="n">
-        <v>1110.632222669843</v>
+        <v>1146.860519883732</v>
       </c>
       <c r="O20" t="n">
-        <v>1339.976265922118</v>
+        <v>1376.204563136006</v>
       </c>
       <c r="P20" t="n">
-        <v>1498.041717868431</v>
+        <v>1534.270015082319</v>
       </c>
       <c r="Q20" t="n">
-        <v>1539.520529720738</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="R20" t="n">
-        <v>1539.520529720738</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="S20" t="n">
-        <v>1574.12943742009</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="T20" t="n">
-        <v>1575.748826934627</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="U20" t="n">
-        <v>1557.286178166347</v>
+        <v>1557.286178166346</v>
       </c>
       <c r="V20" t="n">
         <v>1461.60631173725</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>354.9024154810708</v>
+        <v>470.3097557813952</v>
       </c>
       <c r="C21" t="n">
-        <v>180.4493861999438</v>
+        <v>437.8450548076054</v>
       </c>
       <c r="D21" t="n">
-        <v>31.51497653869254</v>
+        <v>288.9106451463541</v>
       </c>
       <c r="E21" t="n">
-        <v>31.51497653869254</v>
+        <v>288.9106451463541</v>
       </c>
       <c r="F21" t="n">
-        <v>31.51497653869254</v>
+        <v>142.3760871732391</v>
       </c>
       <c r="G21" t="n">
-        <v>31.51497653869254</v>
+        <v>142.3760871732391</v>
       </c>
       <c r="H21" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="I21" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="J21" t="n">
-        <v>54.82229110833844</v>
+        <v>54.82229110833842</v>
       </c>
       <c r="K21" t="n">
-        <v>158.4874804661023</v>
+        <v>221.2790471571187</v>
       </c>
       <c r="L21" t="n">
-        <v>158.4874804661023</v>
+        <v>506.5050939910985</v>
       </c>
       <c r="M21" t="n">
-        <v>543.3120455181652</v>
+        <v>891.3296590431614</v>
       </c>
       <c r="N21" t="n">
-        <v>933.3098801844853</v>
+        <v>933.3098801844844</v>
       </c>
       <c r="O21" t="n">
-        <v>1242.619778634927</v>
+        <v>1242.619778634926</v>
       </c>
       <c r="P21" t="n">
-        <v>1473.865173706345</v>
+        <v>1473.865173706344</v>
       </c>
       <c r="Q21" t="n">
-        <v>1575.748826934627</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="R21" t="n">
-        <v>1490.702640495535</v>
+        <v>1490.702640495534</v>
       </c>
       <c r="S21" t="n">
-        <v>1322.108858932851</v>
+        <v>1322.10885893285</v>
       </c>
       <c r="T21" t="n">
-        <v>1120.968983154599</v>
+        <v>1120.968983154598</v>
       </c>
       <c r="U21" t="n">
-        <v>1052.143380646548</v>
+        <v>892.7624495296648</v>
       </c>
       <c r="V21" t="n">
-        <v>816.9912724148053</v>
+        <v>892.7624495296648</v>
       </c>
       <c r="W21" t="n">
-        <v>562.7539156866037</v>
+        <v>638.5250928014632</v>
       </c>
       <c r="X21" t="n">
-        <v>354.9024154810708</v>
+        <v>638.5250928014632</v>
       </c>
       <c r="Y21" t="n">
-        <v>354.9024154810708</v>
+        <v>638.5250928014632</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>178.4049240366029</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="C22" t="n">
-        <v>178.4049240366029</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="D22" t="n">
-        <v>178.4049240366029</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="E22" t="n">
-        <v>178.4049240366029</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="F22" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="G22" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="H22" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="I22" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="J22" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="K22" t="n">
-        <v>34.25905217658738</v>
+        <v>34.25905217658736</v>
       </c>
       <c r="L22" t="n">
-        <v>93.29695884387905</v>
+        <v>93.29695884387903</v>
       </c>
       <c r="M22" t="n">
         <v>165.9332767937211</v>
@@ -5923,7 +5923,7 @@
         <v>242.2770818747223</v>
       </c>
       <c r="O22" t="n">
-        <v>296.7766469554532</v>
+        <v>296.7766469554531</v>
       </c>
       <c r="P22" t="n">
         <v>319.8897577439405</v>
@@ -5941,19 +5941,19 @@
         <v>319.8897577439405</v>
       </c>
       <c r="U22" t="n">
-        <v>251.740540450503</v>
+        <v>266.0735131185432</v>
       </c>
       <c r="V22" t="n">
-        <v>232.4390731590898</v>
+        <v>246.7720458271301</v>
       </c>
       <c r="W22" t="n">
-        <v>178.4049240366029</v>
+        <v>192.7378967046432</v>
       </c>
       <c r="X22" t="n">
-        <v>178.4049240366029</v>
+        <v>192.7378967046432</v>
       </c>
       <c r="Y22" t="n">
-        <v>178.4049240366029</v>
+        <v>192.7378967046432</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>900.1648098240174</v>
+        <v>900.164809824017</v>
       </c>
       <c r="C23" t="n">
-        <v>766.5853137980794</v>
+        <v>766.585313798079</v>
       </c>
       <c r="D23" t="n">
-        <v>643.7026361058025</v>
+        <v>643.7026361058023</v>
       </c>
       <c r="E23" t="n">
-        <v>493.2974044220319</v>
+        <v>493.2974044220318</v>
       </c>
       <c r="F23" t="n">
         <v>317.694520546898</v>
       </c>
       <c r="G23" t="n">
-        <v>134.0651793489863</v>
+        <v>134.0651793489862</v>
       </c>
       <c r="H23" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="I23" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="J23" t="n">
-        <v>60.05911656485862</v>
+        <v>60.0591165648586</v>
       </c>
       <c r="K23" t="n">
         <v>223.5841874067849</v>
@@ -6002,37 +6002,37 @@
         <v>1069.965260314555</v>
       </c>
       <c r="O23" t="n">
-        <v>1376.204563136007</v>
+        <v>1329.679297074632</v>
       </c>
       <c r="P23" t="n">
-        <v>1534.27001508232</v>
+        <v>1487.744749020944</v>
       </c>
       <c r="Q23" t="n">
-        <v>1575.748826934627</v>
+        <v>1529.223560873251</v>
       </c>
       <c r="R23" t="n">
-        <v>1575.748826934627</v>
+        <v>1529.223560873251</v>
       </c>
       <c r="S23" t="n">
-        <v>1575.748826934627</v>
+        <v>1563.832468572603</v>
       </c>
       <c r="T23" t="n">
-        <v>1575.748826934627</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="U23" t="n">
-        <v>1557.286178166347</v>
+        <v>1557.286178166346</v>
       </c>
       <c r="V23" t="n">
         <v>1461.60631173725</v>
       </c>
       <c r="W23" t="n">
-        <v>1344.22067738161</v>
+        <v>1344.220677381609</v>
       </c>
       <c r="X23" t="n">
-        <v>1206.137940035004</v>
+        <v>1206.137940035003</v>
       </c>
       <c r="Y23" t="n">
-        <v>1051.381628973666</v>
+        <v>1051.381628973665</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>514.1398704865263</v>
+        <v>476.0665714598216</v>
       </c>
       <c r="C24" t="n">
-        <v>339.6868412053993</v>
+        <v>301.6135421786946</v>
       </c>
       <c r="D24" t="n">
-        <v>190.752431544148</v>
+        <v>301.6135421786946</v>
       </c>
       <c r="E24" t="n">
-        <v>31.51497653869254</v>
+        <v>142.3760871732391</v>
       </c>
       <c r="F24" t="n">
-        <v>31.51497653869254</v>
+        <v>142.3760871732391</v>
       </c>
       <c r="G24" t="n">
-        <v>31.51497653869254</v>
+        <v>142.3760871732391</v>
       </c>
       <c r="H24" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="I24" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="J24" t="n">
-        <v>31.51497653869254</v>
+        <v>54.82229110833842</v>
       </c>
       <c r="K24" t="n">
-        <v>197.9717325874728</v>
+        <v>54.82229110833842</v>
       </c>
       <c r="L24" t="n">
-        <v>483.1977794214527</v>
+        <v>340.0483379423183</v>
       </c>
       <c r="M24" t="n">
-        <v>645.1956987464469</v>
+        <v>724.8729029943812</v>
       </c>
       <c r="N24" t="n">
-        <v>1035.193533412767</v>
+        <v>1114.870737660701</v>
       </c>
       <c r="O24" t="n">
-        <v>1344.503431863209</v>
+        <v>1242.619778634926</v>
       </c>
       <c r="P24" t="n">
-        <v>1575.748826934627</v>
+        <v>1473.865173706344</v>
       </c>
       <c r="Q24" t="n">
-        <v>1575.748826934627</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="R24" t="n">
-        <v>1575.748826934627</v>
+        <v>1575.748826934626</v>
       </c>
       <c r="S24" t="n">
-        <v>1407.155045371943</v>
+        <v>1407.155045371942</v>
       </c>
       <c r="T24" t="n">
-        <v>1206.015169593691</v>
+        <v>1206.01516959369</v>
       </c>
       <c r="U24" t="n">
-        <v>1171.744672466539</v>
+        <v>1206.01516959369</v>
       </c>
       <c r="V24" t="n">
-        <v>936.5925642347959</v>
+        <v>970.8630613619473</v>
       </c>
       <c r="W24" t="n">
-        <v>682.3552075065943</v>
+        <v>952.0087255482194</v>
       </c>
       <c r="X24" t="n">
-        <v>682.3552075065943</v>
+        <v>744.1572253426866</v>
       </c>
       <c r="Y24" t="n">
-        <v>682.3552075065943</v>
+        <v>536.3969265777328</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="C25" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="D25" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="E25" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="F25" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="G25" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="H25" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="I25" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="J25" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="K25" t="n">
-        <v>34.25905217658738</v>
+        <v>34.25905217658736</v>
       </c>
       <c r="L25" t="n">
-        <v>93.29695884387905</v>
+        <v>93.29695884387903</v>
       </c>
       <c r="M25" t="n">
         <v>165.9332767937211</v>
@@ -6160,7 +6160,7 @@
         <v>242.2770818747223</v>
       </c>
       <c r="O25" t="n">
-        <v>296.7766469554532</v>
+        <v>296.7766469554531</v>
       </c>
       <c r="P25" t="n">
         <v>319.8897577439405</v>
@@ -6169,28 +6169,28 @@
         <v>319.8897577439405</v>
       </c>
       <c r="R25" t="n">
-        <v>158.66683757799</v>
+        <v>319.8897577439405</v>
       </c>
       <c r="S25" t="n">
-        <v>158.66683757799</v>
+        <v>158.6668375779898</v>
       </c>
       <c r="T25" t="n">
-        <v>158.66683757799</v>
+        <v>158.6668375779898</v>
       </c>
       <c r="U25" t="n">
-        <v>104.8505929525927</v>
+        <v>104.8505929525925</v>
       </c>
       <c r="V25" t="n">
-        <v>85.54912566117947</v>
+        <v>85.54912566117937</v>
       </c>
       <c r="W25" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="X25" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.51497653869254</v>
+        <v>31.51497653869252</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1461.036062480549</v>
+        <v>1461.03606248055</v>
       </c>
       <c r="C26" t="n">
         <v>1244.76160941987</v>
       </c>
       <c r="D26" t="n">
-        <v>1039.183974692851</v>
+        <v>1039.183974692852</v>
       </c>
       <c r="E26" t="n">
-        <v>806.0837859743393</v>
+        <v>806.0837859743403</v>
       </c>
       <c r="F26" t="n">
-        <v>547.785945064464</v>
+        <v>547.7859450644651</v>
       </c>
       <c r="G26" t="n">
-        <v>281.4616468318115</v>
+        <v>281.4616468318122</v>
       </c>
       <c r="H26" t="n">
-        <v>96.2164869867764</v>
+        <v>96.216486986777</v>
       </c>
       <c r="I26" t="n">
         <v>55.01419636902197</v>
@@ -6227,10 +6227,10 @@
         <v>233.2079078037137</v>
       </c>
       <c r="K26" t="n">
-        <v>546.3825500541661</v>
+        <v>546.3825500541657</v>
       </c>
       <c r="L26" t="n">
-        <v>951.1760592602127</v>
+        <v>951.1760592602122</v>
       </c>
       <c r="M26" t="n">
         <v>1401.328967915162</v>
@@ -6239,37 +6239,37 @@
         <v>1841.712337187512</v>
       </c>
       <c r="O26" t="n">
-        <v>2220.705951848313</v>
+        <v>2220.705951848312</v>
       </c>
       <c r="P26" t="n">
         <v>2528.420975203151</v>
       </c>
       <c r="Q26" t="n">
-        <v>2719.549358463984</v>
+        <v>2719.549358463983</v>
       </c>
       <c r="R26" t="n">
-        <v>2750.709818451099</v>
+        <v>2750.709818451098</v>
       </c>
       <c r="S26" t="n">
-        <v>2703.326470129091</v>
+        <v>2703.326470129092</v>
       </c>
       <c r="T26" t="n">
         <v>2632.789821799608</v>
       </c>
       <c r="U26" t="n">
-        <v>2531.632215996586</v>
+        <v>2531.632215996587</v>
       </c>
       <c r="V26" t="n">
-        <v>2353.257392532747</v>
+        <v>2353.257392532748</v>
       </c>
       <c r="W26" t="n">
         <v>2153.176801142366</v>
       </c>
       <c r="X26" t="n">
-        <v>1932.399106761018</v>
+        <v>1932.399106761019</v>
       </c>
       <c r="Y26" t="n">
-        <v>1694.947838664938</v>
+        <v>1694.947838664939</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>531.4855844102384</v>
+        <v>236.0166167758722</v>
       </c>
       <c r="C27" t="n">
-        <v>357.0325551291114</v>
+        <v>214.2516513744775</v>
       </c>
       <c r="D27" t="n">
-        <v>208.0981454678602</v>
+        <v>214.2516513744775</v>
       </c>
       <c r="E27" t="n">
-        <v>201.548754342137</v>
+        <v>55.01419636902197</v>
       </c>
       <c r="F27" t="n">
         <v>55.01419636902197</v>
@@ -6330,25 +6330,25 @@
         <v>1882.938378779758</v>
       </c>
       <c r="S27" t="n">
-        <v>1728.672467004458</v>
+        <v>1714.344597217074</v>
       </c>
       <c r="T27" t="n">
-        <v>1680.220655105938</v>
+        <v>1513.204721438822</v>
       </c>
       <c r="U27" t="n">
-        <v>1604.702185360737</v>
+        <v>1284.998187813888</v>
       </c>
       <c r="V27" t="n">
-        <v>1369.550077128995</v>
+        <v>1049.846079582146</v>
       </c>
       <c r="W27" t="n">
-        <v>1115.312720400793</v>
+        <v>795.6087228539441</v>
       </c>
       <c r="X27" t="n">
-        <v>907.4612201952602</v>
+        <v>587.7572226484112</v>
       </c>
       <c r="Y27" t="n">
-        <v>699.7009214303064</v>
+        <v>379.9969238834573</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.76624929131172</v>
+        <v>84.40356703706587</v>
       </c>
       <c r="C28" t="n">
-        <v>78.51813024313712</v>
+        <v>68.15544798889127</v>
       </c>
       <c r="D28" t="n">
-        <v>81.03838336363252</v>
+        <v>70.67570110938667</v>
       </c>
       <c r="E28" t="n">
-        <v>81.03838336363252</v>
+        <v>75.35564949780881</v>
       </c>
       <c r="F28" t="n">
-        <v>81.03838336363252</v>
+        <v>81.03838336363251</v>
       </c>
       <c r="G28" t="n">
-        <v>64.25630175031567</v>
+        <v>64.25630175031566</v>
       </c>
       <c r="H28" t="n">
         <v>55.01419636902197</v>
@@ -6382,52 +6382,52 @@
         <v>55.01419636902197</v>
       </c>
       <c r="J28" t="n">
-        <v>127.3241431386065</v>
+        <v>55.01419636902197</v>
       </c>
       <c r="K28" t="n">
-        <v>130.0682187765014</v>
+        <v>207.4078434154424</v>
       </c>
       <c r="L28" t="n">
-        <v>279.511443860357</v>
+        <v>416.0953214912597</v>
       </c>
       <c r="M28" t="n">
-        <v>352.1477618101991</v>
+        <v>638.3812108496275</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4915668912003</v>
+        <v>714.7250159306286</v>
       </c>
       <c r="O28" t="n">
-        <v>632.6407033804568</v>
+        <v>769.2245810113594</v>
       </c>
       <c r="P28" t="n">
-        <v>805.4033855774697</v>
+        <v>795.0407033232239</v>
       </c>
       <c r="Q28" t="n">
-        <v>805.4033855774697</v>
+        <v>795.0407033232239</v>
       </c>
       <c r="R28" t="n">
-        <v>788.7963589421746</v>
+        <v>778.4336766879287</v>
       </c>
       <c r="S28" t="n">
-        <v>718.9991650168108</v>
+        <v>708.6364827625649</v>
       </c>
       <c r="T28" t="n">
-        <v>642.3693846674236</v>
+        <v>632.0067024131777</v>
       </c>
       <c r="U28" t="n">
-        <v>505.8581830072848</v>
+        <v>495.495500753039</v>
       </c>
       <c r="V28" t="n">
-        <v>403.8617586811303</v>
+        <v>393.4990764268844</v>
       </c>
       <c r="W28" t="n">
-        <v>267.1326525239019</v>
+        <v>256.7699702696561</v>
       </c>
       <c r="X28" t="n">
-        <v>191.8311655056169</v>
+        <v>181.4684832513711</v>
       </c>
       <c r="Y28" t="n">
-        <v>123.7266502418191</v>
+        <v>113.3639679875733</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>1461.036062480549</v>
       </c>
       <c r="C29" t="n">
-        <v>1244.76160941987</v>
+        <v>1244.761609419869</v>
       </c>
       <c r="D29" t="n">
         <v>1039.183974692851</v>
       </c>
       <c r="E29" t="n">
-        <v>806.0837859743394</v>
+        <v>806.0837859743392</v>
       </c>
       <c r="F29" t="n">
         <v>547.7859450644642</v>
       </c>
       <c r="G29" t="n">
-        <v>281.4616468318113</v>
+        <v>281.4616468318115</v>
       </c>
       <c r="H29" t="n">
-        <v>96.21648698677643</v>
+        <v>96.2164869867764</v>
       </c>
       <c r="I29" t="n">
         <v>55.01419636902197</v>
       </c>
       <c r="J29" t="n">
-        <v>233.2079078037136</v>
+        <v>233.2079078037137</v>
       </c>
       <c r="K29" t="n">
-        <v>546.3825500541656</v>
+        <v>546.3825500541657</v>
       </c>
       <c r="L29" t="n">
-        <v>951.1760592602121</v>
+        <v>951.1760592602122</v>
       </c>
       <c r="M29" t="n">
         <v>1401.328967915162</v>
@@ -6482,7 +6482,7 @@
         <v>2528.420975203151</v>
       </c>
       <c r="Q29" t="n">
-        <v>2719.549358463983</v>
+        <v>2719.549358463984</v>
       </c>
       <c r="R29" t="n">
         <v>2750.709818451099</v>
@@ -6497,10 +6497,10 @@
         <v>2531.632215996586</v>
       </c>
       <c r="V29" t="n">
-        <v>2353.257392532748</v>
+        <v>2353.257392532747</v>
       </c>
       <c r="W29" t="n">
-        <v>2153.176801142366</v>
+        <v>2153.176801142365</v>
       </c>
       <c r="X29" t="n">
         <v>1932.399106761018</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>296.8277733024811</v>
+        <v>364.4696507431216</v>
       </c>
       <c r="C30" t="n">
-        <v>275.0628079010864</v>
+        <v>190.0166214619946</v>
       </c>
       <c r="D30" t="n">
-        <v>142.9222557296361</v>
+        <v>190.0166214619946</v>
       </c>
       <c r="E30" t="n">
-        <v>136.3728646039129</v>
+        <v>183.4672303362714</v>
       </c>
       <c r="F30" t="n">
-        <v>136.3728646039129</v>
+        <v>55.01419636902197</v>
       </c>
       <c r="G30" t="n">
-        <v>136.3728646039129</v>
+        <v>55.01419636902197</v>
       </c>
       <c r="H30" t="n">
-        <v>136.3728646039129</v>
+        <v>55.01419636902197</v>
       </c>
       <c r="I30" t="n">
         <v>55.01419636902197</v>
@@ -6564,28 +6564,28 @@
         <v>1967.98456521885</v>
       </c>
       <c r="R30" t="n">
-        <v>1967.98456521885</v>
+        <v>1882.938378779758</v>
       </c>
       <c r="S30" t="n">
-        <v>1799.390783656165</v>
+        <v>1714.344597217074</v>
       </c>
       <c r="T30" t="n">
-        <v>1598.250907877914</v>
+        <v>1513.204721438822</v>
       </c>
       <c r="U30" t="n">
-        <v>1370.04437425298</v>
+        <v>1284.998187813888</v>
       </c>
       <c r="V30" t="n">
-        <v>1134.892266021237</v>
+        <v>1049.846079582146</v>
       </c>
       <c r="W30" t="n">
-        <v>880.6549092930359</v>
+        <v>948.2967867336763</v>
       </c>
       <c r="X30" t="n">
-        <v>672.803409087503</v>
+        <v>740.4452865281435</v>
       </c>
       <c r="Y30" t="n">
-        <v>465.0431103225491</v>
+        <v>532.6849877631896</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.28650241180712</v>
+        <v>84.40356703706588</v>
       </c>
       <c r="C31" t="n">
-        <v>81.03838336363252</v>
+        <v>68.15544798889128</v>
       </c>
       <c r="D31" t="n">
-        <v>81.03838336363252</v>
+        <v>70.67570110938668</v>
       </c>
       <c r="E31" t="n">
-        <v>81.03838336363252</v>
+        <v>75.35564949780883</v>
       </c>
       <c r="F31" t="n">
         <v>81.03838336363252</v>
@@ -6622,49 +6622,49 @@
         <v>55.01419636902197</v>
       </c>
       <c r="K31" t="n">
-        <v>57.75827200691681</v>
+        <v>207.4078434154425</v>
       </c>
       <c r="L31" t="n">
-        <v>116.7961786742085</v>
+        <v>269.1487616061113</v>
       </c>
       <c r="M31" t="n">
-        <v>189.4324966240505</v>
+        <v>491.434650964479</v>
       </c>
       <c r="N31" t="n">
-        <v>348.7950089014732</v>
+        <v>567.7784560454802</v>
       </c>
       <c r="O31" t="n">
-        <v>552.9441453907297</v>
+        <v>622.278021126211</v>
       </c>
       <c r="P31" t="n">
-        <v>725.7068275877426</v>
+        <v>795.040703323224</v>
       </c>
       <c r="Q31" t="n">
-        <v>807.9236386979652</v>
+        <v>795.040703323224</v>
       </c>
       <c r="R31" t="n">
-        <v>791.3166120626701</v>
+        <v>778.4336766879288</v>
       </c>
       <c r="S31" t="n">
-        <v>721.5194181373063</v>
+        <v>708.636482762565</v>
       </c>
       <c r="T31" t="n">
-        <v>644.889637787919</v>
+        <v>632.0067024131778</v>
       </c>
       <c r="U31" t="n">
-        <v>508.3784361277803</v>
+        <v>495.495500753039</v>
       </c>
       <c r="V31" t="n">
-        <v>406.3820118016257</v>
+        <v>393.4990764268845</v>
       </c>
       <c r="W31" t="n">
-        <v>269.6529056443974</v>
+        <v>256.7699702696561</v>
       </c>
       <c r="X31" t="n">
-        <v>194.3514186261123</v>
+        <v>181.4684832513711</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.2469033623145</v>
+        <v>113.3639679875733</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1414.67527356364</v>
+        <v>1414.675273563639</v>
       </c>
       <c r="C32" t="n">
         <v>1204.746291611699</v>
@@ -6713,7 +6713,7 @@
         <v>1870.865827200151</v>
       </c>
       <c r="O32" t="n">
-        <v>2256.078638094627</v>
+        <v>2104.923805360465</v>
       </c>
       <c r="P32" t="n">
         <v>2418.858024948979</v>
@@ -6734,13 +6734,13 @@
         <v>2453.544071535981</v>
       </c>
       <c r="V32" t="n">
-        <v>2281.514719180882</v>
+        <v>2281.514719180881</v>
       </c>
       <c r="W32" t="n">
         <v>2087.779598899239</v>
       </c>
       <c r="X32" t="n">
-        <v>1873.347375626631</v>
+        <v>1873.34737562663</v>
       </c>
       <c r="Y32" t="n">
         <v>1642.24157863929</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>558.419572290319</v>
+        <v>527.9061656845956</v>
       </c>
       <c r="C33" t="n">
-        <v>543.0000779976633</v>
+        <v>512.4866713919399</v>
       </c>
       <c r="D33" t="n">
-        <v>543.0000779976633</v>
+        <v>440.2023864267471</v>
       </c>
       <c r="E33" t="n">
-        <v>383.7626229922079</v>
+        <v>280.9649314212916</v>
       </c>
       <c r="F33" t="n">
-        <v>383.7626229922079</v>
+        <v>134.4303734481765</v>
       </c>
       <c r="G33" t="n">
-        <v>245.2914840827231</v>
+        <v>134.4303734481765</v>
       </c>
       <c r="H33" t="n">
         <v>134.4303734481765</v>
@@ -6801,28 +6801,28 @@
         <v>1966.042074063113</v>
       </c>
       <c r="R33" t="n">
-        <v>1966.042074063113</v>
+        <v>1880.995887624022</v>
       </c>
       <c r="S33" t="n">
-        <v>1797.448292500429</v>
+        <v>1712.402106061337</v>
       </c>
       <c r="T33" t="n">
-        <v>1596.308416722177</v>
+        <v>1511.262230283086</v>
       </c>
       <c r="U33" t="n">
-        <v>1472.602638252347</v>
+        <v>1283.055696658152</v>
       </c>
       <c r="V33" t="n">
-        <v>1237.450530020604</v>
+        <v>1047.903588426409</v>
       </c>
       <c r="W33" t="n">
-        <v>983.2131732924023</v>
+        <v>952.6997666866791</v>
       </c>
       <c r="X33" t="n">
-        <v>934.3952080753409</v>
+        <v>744.8482664811463</v>
       </c>
       <c r="Y33" t="n">
-        <v>726.634909310387</v>
+        <v>696.1215027046637</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.30759792985361</v>
+        <v>62.97435315272111</v>
       </c>
       <c r="C34" t="n">
-        <v>66.40494999041803</v>
+        <v>53.07170521328553</v>
       </c>
       <c r="D34" t="n">
-        <v>66.40494999041803</v>
+        <v>53.07170521328553</v>
       </c>
       <c r="E34" t="n">
-        <v>66.40494999041803</v>
+        <v>63.97084983538279</v>
       </c>
       <c r="F34" t="n">
         <v>66.40494999041803</v>
@@ -6856,52 +6856,52 @@
         <v>53.07170521328553</v>
       </c>
       <c r="J34" t="n">
-        <v>53.07170521328553</v>
+        <v>131.6008482165452</v>
       </c>
       <c r="K34" t="n">
-        <v>199.9000136839089</v>
+        <v>290.2136914966408</v>
       </c>
       <c r="L34" t="n">
-        <v>258.9379203512006</v>
+        <v>401.4734432162689</v>
       </c>
       <c r="M34" t="n">
-        <v>331.5742383010427</v>
+        <v>474.109761166111</v>
       </c>
       <c r="N34" t="n">
-        <v>407.9180433820439</v>
+        <v>550.4535662471122</v>
       </c>
       <c r="O34" t="n">
-        <v>618.2863761049755</v>
+        <v>604.953131327843</v>
       </c>
       <c r="P34" t="n">
-        <v>641.3994868934628</v>
+        <v>628.0662421163304</v>
       </c>
       <c r="Q34" t="n">
-        <v>729.8354942373605</v>
+        <v>716.5022494602281</v>
       </c>
       <c r="R34" t="n">
-        <v>719.5739387108044</v>
+        <v>706.240693933672</v>
       </c>
       <c r="S34" t="n">
-        <v>656.1222158941796</v>
+        <v>642.7889711170471</v>
       </c>
       <c r="T34" t="n">
-        <v>585.8379066535314</v>
+        <v>572.5046618763989</v>
       </c>
       <c r="U34" t="n">
-        <v>455.6721761021316</v>
+        <v>442.3389313249992</v>
       </c>
       <c r="V34" t="n">
-        <v>360.0212228847161</v>
+        <v>346.6879781075836</v>
       </c>
       <c r="W34" t="n">
-        <v>229.6375878362268</v>
+        <v>216.3043430590943</v>
       </c>
       <c r="X34" t="n">
-        <v>160.6815719266808</v>
+        <v>147.3483271495483</v>
       </c>
       <c r="Y34" t="n">
-        <v>98.92252777162199</v>
+        <v>85.58928299448949</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1083.487657429497</v>
+        <v>1083.487657429498</v>
       </c>
       <c r="C35" t="n">
-        <v>920.6085593143933</v>
+        <v>920.6085593143945</v>
       </c>
       <c r="D35" t="n">
-        <v>768.4262795329511</v>
+        <v>768.4262795329523</v>
       </c>
       <c r="E35" t="n">
-        <v>588.7214457600151</v>
+        <v>588.7214457600163</v>
       </c>
       <c r="F35" t="n">
-        <v>383.8189597957158</v>
+        <v>383.8189597957171</v>
       </c>
       <c r="G35" t="n">
-        <v>170.8900165086394</v>
+        <v>170.8900165086393</v>
       </c>
       <c r="H35" t="n">
         <v>39.04021160918015</v>
       </c>
       <c r="I35" t="n">
-        <v>50.99063395687799</v>
+        <v>39.04021160918015</v>
       </c>
       <c r="J35" t="n">
-        <v>79.53477398304406</v>
+        <v>67.58435163534624</v>
       </c>
       <c r="K35" t="n">
-        <v>243.0598448249704</v>
+        <v>433.0917812679572</v>
       </c>
       <c r="L35" t="n">
-        <v>498.2037826224914</v>
+        <v>688.2357190654782</v>
       </c>
       <c r="M35" t="n">
-        <v>798.7071198689152</v>
+        <v>988.739056311902</v>
       </c>
       <c r="N35" t="n">
-        <v>1089.44091773274</v>
+        <v>1279.472854175727</v>
       </c>
       <c r="O35" t="n">
-        <v>1318.784960985015</v>
+        <v>1508.816897428002</v>
       </c>
       <c r="P35" t="n">
-        <v>1678.832771722012</v>
+        <v>1868.864708164999</v>
       </c>
       <c r="Q35" t="n">
-        <v>1862.624965397973</v>
+        <v>1946.118212767247</v>
       </c>
       <c r="R35" t="n">
         <v>1946.118212767247</v>
@@ -6971,16 +6971,16 @@
         <v>1887.107036217654</v>
       </c>
       <c r="V35" t="n">
-        <v>1762.127567699391</v>
+        <v>1762.127567699392</v>
       </c>
       <c r="W35" t="n">
-        <v>1615.442331254585</v>
+        <v>1615.442331254586</v>
       </c>
       <c r="X35" t="n">
-        <v>1448.059991818814</v>
+        <v>1448.059991818815</v>
       </c>
       <c r="Y35" t="n">
-        <v>1264.00407866831</v>
+        <v>1264.004078668311</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>917.5319130741603</v>
+        <v>449.4475701053235</v>
       </c>
       <c r="C36" t="n">
-        <v>743.0788837930334</v>
+        <v>324.0459084917799</v>
       </c>
       <c r="D36" t="n">
-        <v>594.1444741317821</v>
+        <v>324.0459084917799</v>
       </c>
       <c r="E36" t="n">
-        <v>434.9070191263265</v>
+        <v>324.0459084917799</v>
       </c>
       <c r="F36" t="n">
-        <v>288.3724611532115</v>
+        <v>177.5113505186649</v>
       </c>
       <c r="G36" t="n">
-        <v>149.9013222437268</v>
+        <v>39.04021160918015</v>
       </c>
       <c r="H36" t="n">
         <v>39.04021160918015</v>
@@ -7014,22 +7014,22 @@
         <v>39.04021160918015</v>
       </c>
       <c r="J36" t="n">
-        <v>62.34752617882569</v>
+        <v>62.34752617882606</v>
       </c>
       <c r="K36" t="n">
-        <v>228.8042822276059</v>
+        <v>228.8042822276063</v>
       </c>
       <c r="L36" t="n">
-        <v>514.0303290615858</v>
+        <v>514.0303290615861</v>
       </c>
       <c r="M36" t="n">
-        <v>898.8548941136487</v>
+        <v>898.8548941136492</v>
       </c>
       <c r="N36" t="n">
         <v>1309.571633708866</v>
       </c>
       <c r="O36" t="n">
-        <v>1618.881532159307</v>
+        <v>1618.881532159308</v>
       </c>
       <c r="P36" t="n">
         <v>1850.126927230726</v>
@@ -7038,28 +7038,28 @@
         <v>1952.010580459008</v>
       </c>
       <c r="R36" t="n">
-        <v>1866.964394019916</v>
+        <v>1952.010580459008</v>
       </c>
       <c r="S36" t="n">
-        <v>1866.964394019916</v>
+        <v>1952.010580459008</v>
       </c>
       <c r="T36" t="n">
-        <v>1844.656291804216</v>
+        <v>1750.870704680756</v>
       </c>
       <c r="U36" t="n">
-        <v>1616.449758179283</v>
+        <v>1522.664171055822</v>
       </c>
       <c r="V36" t="n">
-        <v>1381.29764994754</v>
+        <v>1287.51206282408</v>
       </c>
       <c r="W36" t="n">
-        <v>1127.060293219339</v>
+        <v>1033.274706095878</v>
       </c>
       <c r="X36" t="n">
-        <v>919.208793013806</v>
+        <v>825.4232058903453</v>
       </c>
       <c r="Y36" t="n">
-        <v>917.5319130741603</v>
+        <v>617.6629071253915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,73 +7069,73 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.96765448525622</v>
+        <v>39.04021160918015</v>
       </c>
       <c r="C37" t="n">
-        <v>41.96765448525622</v>
+        <v>39.04021160918015</v>
       </c>
       <c r="D37" t="n">
-        <v>41.96765448525622</v>
+        <v>39.04021160918015</v>
       </c>
       <c r="E37" t="n">
-        <v>41.96765448525622</v>
+        <v>39.04021160918015</v>
       </c>
       <c r="F37" t="n">
-        <v>41.96765448525622</v>
+        <v>41.96765448525565</v>
       </c>
       <c r="G37" t="n">
-        <v>41.96765448525622</v>
+        <v>41.96765448525565</v>
       </c>
       <c r="H37" t="n">
-        <v>41.96765448525622</v>
+        <v>41.96765448525565</v>
       </c>
       <c r="I37" t="n">
-        <v>41.96765448525622</v>
+        <v>41.96765448525565</v>
       </c>
       <c r="J37" t="n">
-        <v>41.96765448525622</v>
+        <v>41.96765448525565</v>
       </c>
       <c r="K37" t="n">
-        <v>44.71173012315106</v>
+        <v>44.71173012315049</v>
       </c>
       <c r="L37" t="n">
-        <v>103.7496367904427</v>
+        <v>103.7496367904422</v>
       </c>
       <c r="M37" t="n">
-        <v>176.3859547402848</v>
+        <v>176.3859547402842</v>
       </c>
       <c r="N37" t="n">
-        <v>252.729759821286</v>
+        <v>252.7297598212854</v>
       </c>
       <c r="O37" t="n">
-        <v>307.2293249020169</v>
+        <v>307.2293249020163</v>
       </c>
       <c r="P37" t="n">
-        <v>330.3424356905042</v>
+        <v>330.3424356905036</v>
       </c>
       <c r="Q37" t="n">
-        <v>330.3424356905042</v>
+        <v>330.3424356905036</v>
       </c>
       <c r="R37" t="n">
-        <v>330.3424356905042</v>
+        <v>330.3424356905036</v>
       </c>
       <c r="S37" t="n">
-        <v>313.9405967107163</v>
+        <v>313.9405967107158</v>
       </c>
       <c r="T37" t="n">
-        <v>290.706171306905</v>
+        <v>290.7061713069046</v>
       </c>
       <c r="U37" t="n">
-        <v>207.5903245923422</v>
+        <v>207.5903245923419</v>
       </c>
       <c r="V37" t="n">
-        <v>158.9892552117635</v>
+        <v>158.9892552117633</v>
       </c>
       <c r="W37" t="n">
-        <v>75.65550400011114</v>
+        <v>75.65550400011097</v>
       </c>
       <c r="X37" t="n">
-        <v>53.74937192740203</v>
+        <v>53.74937192740195</v>
       </c>
       <c r="Y37" t="n">
         <v>39.04021160918015</v>
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1083.487657429497</v>
+        <v>1083.487657429498</v>
       </c>
       <c r="C38" t="n">
-        <v>920.6085593143936</v>
+        <v>920.6085593143943</v>
       </c>
       <c r="D38" t="n">
-        <v>768.4262795329513</v>
+        <v>768.4262795329521</v>
       </c>
       <c r="E38" t="n">
-        <v>588.7214457600153</v>
+        <v>588.7214457600162</v>
       </c>
       <c r="F38" t="n">
-        <v>383.818959795716</v>
+        <v>383.8189597957169</v>
       </c>
       <c r="G38" t="n">
-        <v>170.8900165086394</v>
+        <v>170.8900165086393</v>
       </c>
       <c r="H38" t="n">
         <v>39.04021160918015</v>
       </c>
       <c r="I38" t="n">
-        <v>50.99063395687799</v>
+        <v>39.04021160918015</v>
       </c>
       <c r="J38" t="n">
-        <v>281.5171327737287</v>
+        <v>269.5667104260309</v>
       </c>
       <c r="K38" t="n">
-        <v>445.042203615655</v>
+        <v>433.0917812679572</v>
       </c>
       <c r="L38" t="n">
-        <v>700.1861414131761</v>
+        <v>688.2357190654782</v>
       </c>
       <c r="M38" t="n">
-        <v>1000.6894786596</v>
+        <v>1030.406116753604</v>
       </c>
       <c r="N38" t="n">
-        <v>1291.423276523425</v>
+        <v>1321.139914617429</v>
       </c>
       <c r="O38" t="n">
-        <v>1520.767319775699</v>
+        <v>1550.483957869703</v>
       </c>
       <c r="P38" t="n">
-        <v>1678.832771722012</v>
+        <v>1910.531768606701</v>
       </c>
       <c r="Q38" t="n">
-        <v>1862.624965397974</v>
+        <v>1952.010580459008</v>
       </c>
       <c r="R38" t="n">
-        <v>1946.118212767248</v>
+        <v>1952.010580459008</v>
       </c>
       <c r="S38" t="n">
         <v>1952.010580459008</v>
@@ -7208,16 +7208,16 @@
         <v>1887.107036217654</v>
       </c>
       <c r="V38" t="n">
-        <v>1762.127567699391</v>
+        <v>1762.127567699392</v>
       </c>
       <c r="W38" t="n">
-        <v>1615.442331254585</v>
+        <v>1615.442331254586</v>
       </c>
       <c r="X38" t="n">
-        <v>1448.059991818814</v>
+        <v>1448.059991818815</v>
       </c>
       <c r="Y38" t="n">
-        <v>1264.00407866831</v>
+        <v>1264.004078668311</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>806.6708024396136</v>
+        <v>449.4475701053235</v>
       </c>
       <c r="C39" t="n">
-        <v>632.2177731584866</v>
+        <v>449.4475701053235</v>
       </c>
       <c r="D39" t="n">
-        <v>483.2833634972354</v>
+        <v>449.4475701053235</v>
       </c>
       <c r="E39" t="n">
-        <v>324.0459084917799</v>
+        <v>296.4358802168418</v>
       </c>
       <c r="F39" t="n">
-        <v>177.5113505186649</v>
+        <v>149.9013222437268</v>
       </c>
       <c r="G39" t="n">
-        <v>39.04021160918015</v>
+        <v>149.9013222437268</v>
       </c>
       <c r="H39" t="n">
         <v>39.04021160918015</v>
@@ -7254,7 +7254,7 @@
         <v>62.34752617882623</v>
       </c>
       <c r="K39" t="n">
-        <v>228.8042822276063</v>
+        <v>228.8042822276065</v>
       </c>
       <c r="L39" t="n">
         <v>514.0303290615864</v>
@@ -7281,22 +7281,22 @@
         <v>1952.010580459008</v>
       </c>
       <c r="T39" t="n">
-        <v>1952.010580459008</v>
+        <v>1750.870704680756</v>
       </c>
       <c r="U39" t="n">
-        <v>1879.887403390112</v>
+        <v>1522.664171055822</v>
       </c>
       <c r="V39" t="n">
-        <v>1644.73529515837</v>
+        <v>1287.51206282408</v>
       </c>
       <c r="W39" t="n">
-        <v>1390.497938430168</v>
+        <v>1033.274706095878</v>
       </c>
       <c r="X39" t="n">
-        <v>1182.646438224635</v>
+        <v>825.4232058903453</v>
       </c>
       <c r="Y39" t="n">
-        <v>974.8861394596815</v>
+        <v>617.6629071253915</v>
       </c>
     </row>
     <row r="40">
@@ -7309,70 +7309,70 @@
         <v>39.04021160918015</v>
       </c>
       <c r="C40" t="n">
-        <v>39.04021160918015</v>
+        <v>41.96765448525565</v>
       </c>
       <c r="D40" t="n">
-        <v>39.04021160918015</v>
+        <v>41.96765448525565</v>
       </c>
       <c r="E40" t="n">
-        <v>41.96765448525622</v>
+        <v>41.96765448525565</v>
       </c>
       <c r="F40" t="n">
-        <v>41.96765448525622</v>
+        <v>41.96765448525565</v>
       </c>
       <c r="G40" t="n">
-        <v>41.96765448525622</v>
+        <v>41.96765448525565</v>
       </c>
       <c r="H40" t="n">
-        <v>41.96765448525622</v>
+        <v>41.96765448525565</v>
       </c>
       <c r="I40" t="n">
-        <v>41.96765448525622</v>
+        <v>41.96765448525565</v>
       </c>
       <c r="J40" t="n">
-        <v>41.96765448525622</v>
+        <v>41.96765448525565</v>
       </c>
       <c r="K40" t="n">
-        <v>44.71173012315106</v>
+        <v>44.71173012315049</v>
       </c>
       <c r="L40" t="n">
-        <v>103.7496367904427</v>
+        <v>103.7496367904422</v>
       </c>
       <c r="M40" t="n">
-        <v>176.3859547402848</v>
+        <v>176.3859547402842</v>
       </c>
       <c r="N40" t="n">
-        <v>252.729759821286</v>
+        <v>252.7297598212854</v>
       </c>
       <c r="O40" t="n">
-        <v>307.2293249020169</v>
+        <v>307.2293249020163</v>
       </c>
       <c r="P40" t="n">
-        <v>330.3424356905042</v>
+        <v>330.3424356905036</v>
       </c>
       <c r="Q40" t="n">
-        <v>330.3424356905042</v>
+        <v>330.3424356905036</v>
       </c>
       <c r="R40" t="n">
-        <v>330.3424356905042</v>
+        <v>330.3424356905036</v>
       </c>
       <c r="S40" t="n">
-        <v>313.9405967107163</v>
+        <v>313.9405967107158</v>
       </c>
       <c r="T40" t="n">
-        <v>290.706171306905</v>
+        <v>290.7061713069046</v>
       </c>
       <c r="U40" t="n">
-        <v>207.5903245923422</v>
+        <v>207.5903245923419</v>
       </c>
       <c r="V40" t="n">
-        <v>158.9892552117635</v>
+        <v>158.9892552117633</v>
       </c>
       <c r="W40" t="n">
-        <v>75.65550400011114</v>
+        <v>75.65550400011097</v>
       </c>
       <c r="X40" t="n">
-        <v>53.74937192740203</v>
+        <v>53.74937192740195</v>
       </c>
       <c r="Y40" t="n">
         <v>39.04021160918015</v>
@@ -7388,49 +7388,49 @@
         <v>1083.487657429497</v>
       </c>
       <c r="C41" t="n">
-        <v>920.6085593143937</v>
+        <v>920.6085593143933</v>
       </c>
       <c r="D41" t="n">
-        <v>768.4262795329516</v>
+        <v>768.4262795329511</v>
       </c>
       <c r="E41" t="n">
-        <v>588.7214457600157</v>
+        <v>588.7214457600151</v>
       </c>
       <c r="F41" t="n">
-        <v>383.8189597957164</v>
+        <v>383.8189597957157</v>
       </c>
       <c r="G41" t="n">
         <v>170.8900165086394</v>
       </c>
       <c r="H41" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="I41" t="n">
-        <v>50.99063395687799</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="J41" t="n">
-        <v>221.8481558066988</v>
+        <v>269.5667104260308</v>
       </c>
       <c r="K41" t="n">
-        <v>385.3732266486251</v>
+        <v>433.0917812679571</v>
       </c>
       <c r="L41" t="n">
-        <v>640.5171644461461</v>
+        <v>688.2357190654782</v>
       </c>
       <c r="M41" t="n">
-        <v>941.0205016925701</v>
+        <v>988.739056311902</v>
       </c>
       <c r="N41" t="n">
-        <v>1231.754299556395</v>
+        <v>1315.247546925669</v>
       </c>
       <c r="O41" t="n">
-        <v>1461.098342808669</v>
+        <v>1746.573948968628</v>
       </c>
       <c r="P41" t="n">
-        <v>1619.163794754982</v>
+        <v>1904.639400914941</v>
       </c>
       <c r="Q41" t="n">
-        <v>1862.624965397974</v>
+        <v>1946.118212767248</v>
       </c>
       <c r="R41" t="n">
         <v>1946.118212767248</v>
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>668.199663530129</v>
+        <v>516.2656873612175</v>
       </c>
       <c r="C42" t="n">
-        <v>493.7466342490019</v>
+        <v>516.2656873612175</v>
       </c>
       <c r="D42" t="n">
-        <v>344.8122245877507</v>
+        <v>516.2656873612175</v>
       </c>
       <c r="E42" t="n">
-        <v>185.5747695822952</v>
+        <v>516.2656873612175</v>
       </c>
       <c r="F42" t="n">
-        <v>39.04021160918015</v>
+        <v>369.7311293881024</v>
       </c>
       <c r="G42" t="n">
-        <v>39.04021160918015</v>
+        <v>231.2599904786177</v>
       </c>
       <c r="H42" t="n">
-        <v>39.04021160918015</v>
+        <v>120.3988798440711</v>
       </c>
       <c r="I42" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="J42" t="n">
-        <v>62.34752617882623</v>
+        <v>62.34752617882606</v>
       </c>
       <c r="K42" t="n">
         <v>228.8042822276063</v>
       </c>
       <c r="L42" t="n">
-        <v>514.0303290615864</v>
+        <v>514.0303290615861</v>
       </c>
       <c r="M42" t="n">
-        <v>898.8548941136492</v>
+        <v>898.854894113649</v>
       </c>
       <c r="N42" t="n">
         <v>1309.571633708866</v>
@@ -7512,28 +7512,28 @@
         <v>1952.010580459008</v>
       </c>
       <c r="R42" t="n">
-        <v>1952.010580459008</v>
+        <v>1866.964394019916</v>
       </c>
       <c r="S42" t="n">
-        <v>1952.010580459008</v>
+        <v>1698.370612457232</v>
       </c>
       <c r="T42" t="n">
-        <v>1763.539379280253</v>
+        <v>1497.23073667898</v>
       </c>
       <c r="U42" t="n">
-        <v>1741.416264480628</v>
+        <v>1269.024203054047</v>
       </c>
       <c r="V42" t="n">
-        <v>1506.264156248885</v>
+        <v>1033.872094822304</v>
       </c>
       <c r="W42" t="n">
-        <v>1252.026799520684</v>
+        <v>779.6347380941024</v>
       </c>
       <c r="X42" t="n">
-        <v>1044.175299315151</v>
+        <v>724.0259861261713</v>
       </c>
       <c r="Y42" t="n">
-        <v>836.415000550197</v>
+        <v>516.2656873612175</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="C43" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="D43" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="E43" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="F43" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="G43" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="H43" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="I43" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="J43" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="K43" t="n">
-        <v>41.78428724707499</v>
+        <v>41.784287247075</v>
       </c>
       <c r="L43" t="n">
         <v>100.8221939143667</v>
@@ -7582,37 +7582,37 @@
         <v>249.80231694521</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3018820259408</v>
+        <v>307.2293249020171</v>
       </c>
       <c r="P43" t="n">
-        <v>327.4149928144282</v>
+        <v>330.3424356905044</v>
       </c>
       <c r="Q43" t="n">
-        <v>327.4149928144282</v>
+        <v>330.3424356905044</v>
       </c>
       <c r="R43" t="n">
-        <v>330.3424356905042</v>
+        <v>330.3424356905044</v>
       </c>
       <c r="S43" t="n">
-        <v>313.9405967107163</v>
+        <v>313.9405967107165</v>
       </c>
       <c r="T43" t="n">
-        <v>290.706171306905</v>
+        <v>290.7061713069052</v>
       </c>
       <c r="U43" t="n">
-        <v>207.5903245923422</v>
+        <v>207.5903245923423</v>
       </c>
       <c r="V43" t="n">
-        <v>158.9892552117635</v>
+        <v>158.9892552117636</v>
       </c>
       <c r="W43" t="n">
-        <v>75.65550400011114</v>
+        <v>75.65550400011121</v>
       </c>
       <c r="X43" t="n">
-        <v>53.74937192740203</v>
+        <v>53.74937192740207</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7625,49 @@
         <v>1083.487657429497</v>
       </c>
       <c r="C44" t="n">
-        <v>920.6085593143932</v>
+        <v>920.6085593143933</v>
       </c>
       <c r="D44" t="n">
-        <v>768.4262795329512</v>
+        <v>768.4262795329511</v>
       </c>
       <c r="E44" t="n">
-        <v>588.7214457600153</v>
+        <v>588.7214457600151</v>
       </c>
       <c r="F44" t="n">
-        <v>383.818959795716</v>
+        <v>383.8189597957157</v>
       </c>
       <c r="G44" t="n">
         <v>170.8900165086394</v>
       </c>
       <c r="H44" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="I44" t="n">
-        <v>50.99063395687799</v>
+        <v>50.99063395687796</v>
       </c>
       <c r="J44" t="n">
-        <v>79.53477398304406</v>
+        <v>79.53477398304405</v>
       </c>
       <c r="K44" t="n">
-        <v>243.0598448249704</v>
+        <v>445.0422036156549</v>
       </c>
       <c r="L44" t="n">
-        <v>498.2037826224914</v>
+        <v>700.1861414131758</v>
       </c>
       <c r="M44" t="n">
-        <v>798.7071198689152</v>
+        <v>1183.30876007678</v>
       </c>
       <c r="N44" t="n">
-        <v>1231.754299556395</v>
+        <v>1474.042557940605</v>
       </c>
       <c r="O44" t="n">
-        <v>1461.098342808669</v>
+        <v>1703.38660119288</v>
       </c>
       <c r="P44" t="n">
-        <v>1619.163794754982</v>
+        <v>1861.452053139192</v>
       </c>
       <c r="Q44" t="n">
-        <v>1862.624965397974</v>
+        <v>1946.118212767248</v>
       </c>
       <c r="R44" t="n">
         <v>1946.118212767248</v>
@@ -7682,16 +7682,16 @@
         <v>1887.107036217654</v>
       </c>
       <c r="V44" t="n">
-        <v>1762.127567699391</v>
+        <v>1762.127567699392</v>
       </c>
       <c r="W44" t="n">
-        <v>1615.442331254585</v>
+        <v>1615.442331254586</v>
       </c>
       <c r="X44" t="n">
         <v>1448.059991818814</v>
       </c>
       <c r="Y44" t="n">
-        <v>1264.00407866831</v>
+        <v>1264.004078668311</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>668.199663530129</v>
+        <v>401.8910209288559</v>
       </c>
       <c r="C45" t="n">
-        <v>493.7466342490019</v>
+        <v>347.2120762758869</v>
       </c>
       <c r="D45" t="n">
-        <v>344.8122245877507</v>
+        <v>198.2776666146357</v>
       </c>
       <c r="E45" t="n">
-        <v>185.5747695822952</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="F45" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="G45" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="H45" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="I45" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="J45" t="n">
-        <v>62.34752617882606</v>
+        <v>62.347526178826</v>
       </c>
       <c r="K45" t="n">
         <v>228.8042822276063</v>
@@ -7734,7 +7734,7 @@
         <v>514.0303290615861</v>
       </c>
       <c r="M45" t="n">
-        <v>898.854894113649</v>
+        <v>898.8548941136492</v>
       </c>
       <c r="N45" t="n">
         <v>1309.571633708866</v>
@@ -7749,28 +7749,28 @@
         <v>1952.010580459008</v>
       </c>
       <c r="R45" t="n">
-        <v>1952.010580459008</v>
+        <v>1866.964394019916</v>
       </c>
       <c r="S45" t="n">
-        <v>1952.010580459008</v>
+        <v>1698.370612457232</v>
       </c>
       <c r="T45" t="n">
-        <v>1763.539379280253</v>
+        <v>1497.23073667898</v>
       </c>
       <c r="U45" t="n">
-        <v>1741.416264480628</v>
+        <v>1269.024203054047</v>
       </c>
       <c r="V45" t="n">
-        <v>1506.264156248885</v>
+        <v>1239.955513647612</v>
       </c>
       <c r="W45" t="n">
-        <v>1252.026799520684</v>
+        <v>985.7181569194106</v>
       </c>
       <c r="X45" t="n">
-        <v>1044.175299315151</v>
+        <v>777.8666567138778</v>
       </c>
       <c r="Y45" t="n">
-        <v>836.415000550197</v>
+        <v>570.1063579489239</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="C46" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="D46" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="E46" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="F46" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="G46" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="H46" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="I46" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="J46" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
       <c r="K46" t="n">
-        <v>41.78428724707499</v>
+        <v>41.784287247075</v>
       </c>
       <c r="L46" t="n">
         <v>100.8221939143667</v>
@@ -7828,28 +7828,28 @@
         <v>327.4149928144282</v>
       </c>
       <c r="R46" t="n">
-        <v>330.3424356905042</v>
+        <v>330.3424356905044</v>
       </c>
       <c r="S46" t="n">
-        <v>313.9405967107163</v>
+        <v>313.9405967107165</v>
       </c>
       <c r="T46" t="n">
-        <v>290.706171306905</v>
+        <v>290.7061713069052</v>
       </c>
       <c r="U46" t="n">
-        <v>207.5903245923422</v>
+        <v>207.5903245923423</v>
       </c>
       <c r="V46" t="n">
-        <v>158.9892552117635</v>
+        <v>158.9892552117636</v>
       </c>
       <c r="W46" t="n">
-        <v>75.65550400011114</v>
+        <v>75.65550400011121</v>
       </c>
       <c r="X46" t="n">
-        <v>53.74937192740203</v>
+        <v>53.74937192740207</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.04021160918015</v>
+        <v>39.04021160918016</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>235.3925885601156</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>250.4508600602684</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O2" t="n">
-        <v>245.4009489368218</v>
+        <v>244.7826565119678</v>
       </c>
       <c r="P2" t="n">
-        <v>246.5357332704046</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8070,7 +8070,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>149.2771449294653</v>
@@ -8143,13 +8143,13 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M4" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N4" t="n">
         <v>142.9882819803682</v>
       </c>
       <c r="O4" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L5" t="n">
         <v>235.7664149699872</v>
@@ -8225,7 +8225,7 @@
         <v>245.0306783175538</v>
       </c>
       <c r="N5" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
         <v>245.4009489368218</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L6" t="n">
-        <v>153.8571172950092</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>157.4367714371534</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>146.6444495984684</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>157.2806895347256</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>148.6588525046114</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>155.2845116011566</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,10 +8459,10 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>268.3307616249986</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N8" t="n">
-        <v>268.9969405584315</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O8" t="n">
         <v>269.6820883835273</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>180.1185623197441</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>102.5482933508675</v>
       </c>
       <c r="K12" t="n">
-        <v>96.32709958956823</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,16 +8778,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>458.4141875466881</v>
+        <v>458.4141875466879</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>158.610705097947</v>
+        <v>84.88156149709036</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>115.6682939136948</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>102.5482933508675</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>96.32709958956823</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>187.4455397719271</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>458.4141875466881</v>
+        <v>458.4141875466879</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>261.5234861366154</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.1645066971807</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,22 +9246,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>82.73322728933809</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>426.6063616544897</v>
       </c>
       <c r="N18" t="n">
-        <v>458.4141875466881</v>
+        <v>458.4141875466879</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>81.42807841769744</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>146.6514627954284</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>201.039412072158</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>82.73322728933809</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>458.4141875466881</v>
+        <v>106.8812445921455</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>102.5482933508675</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>96.32709958956823</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>240.6276438236679</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>458.4141875466881</v>
+        <v>458.4141875466879</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>210.4675137451974</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.1645066971807</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404085</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>465.7050637500001</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>256.6228303635119</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>228.5720303207143</v>
       </c>
       <c r="E11" t="n">
         <v>255.8193587722931</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>280.7650344417427</v>
       </c>
       <c r="G11" t="n">
-        <v>106.8326387047169</v>
+        <v>216.1330623528462</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>208.4428801875511</v>
       </c>
       <c r="I11" t="n">
-        <v>65.84043965254321</v>
+        <v>65.84043965254318</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>125.1962016859579</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>201.6412471701663</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>243.6200893785004</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>260.1269273560849</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>256.6228303635119</v>
       </c>
       <c r="C14" t="n">
         <v>239.1618804710389</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.76082149155331</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>255.8193587722931</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>280.7650344417427</v>
       </c>
       <c r="G14" t="n">
-        <v>288.7112271912926</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>100.2277578297152</v>
+        <v>208.4428801875511</v>
       </c>
       <c r="I14" t="n">
-        <v>65.84043965254321</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>94.88145378715521</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>223.1299574174444</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>243.6200893785004</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>260.1269273560849</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4.689582056016661e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860643.6445671637</v>
+        <v>860643.6445671635</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860643.6445671637</v>
+        <v>860643.6445671635</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860643.6445671637</v>
+        <v>860643.6445671635</v>
       </c>
     </row>
     <row r="10">
@@ -26314,43 +26314,43 @@
         <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
         <v>542803.8551108824</v>
       </c>
       <c r="F2" t="n">
-        <v>542803.8551108817</v>
+        <v>542803.8551108816</v>
       </c>
       <c r="G2" t="n">
+        <v>636307.3716448194</v>
+      </c>
+      <c r="H2" t="n">
         <v>636307.3716448197</v>
       </c>
-      <c r="H2" t="n">
-        <v>636307.3716448199</v>
-      </c>
       <c r="I2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="J2" t="n">
         <v>636307.3716448202</v>
       </c>
       <c r="K2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448206</v>
       </c>
       <c r="L2" t="n">
-        <v>636307.3716448192</v>
+        <v>636307.3716448188</v>
       </c>
       <c r="M2" t="n">
         <v>636307.3716448193</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448189</v>
       </c>
       <c r="O2" t="n">
-        <v>636307.371644819</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="P2" t="n">
         <v>636307.371644819</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>85534.54352428824</v>
+        <v>85534.54352428828</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>116253.6459389537</v>
+        <v>116253.6459389536</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>90560.15664240954</v>
+        <v>90560.15664240958</v>
       </c>
       <c r="M3" t="n">
-        <v>81860.97103976202</v>
+        <v>81860.97103976205</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35394.40306845975</v>
+        <v>35394.40306845961</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>374998.9002986324</v>
       </c>
       <c r="E4" t="n">
-        <v>224901.1682042034</v>
+        <v>224901.1682042033</v>
       </c>
       <c r="F4" t="n">
         <v>224901.1682042033</v>
       </c>
       <c r="G4" t="n">
-        <v>293497.830522394</v>
+        <v>293497.8305223941</v>
       </c>
       <c r="H4" t="n">
         <v>293497.8305223941</v>
       </c>
       <c r="I4" t="n">
-        <v>293497.830522394</v>
+        <v>293497.8305223941</v>
       </c>
       <c r="J4" t="n">
         <v>288786.0486669306</v>
@@ -26445,13 +26445,13 @@
         <v>288786.0486669306</v>
       </c>
       <c r="L4" t="n">
-        <v>288663.9082929196</v>
+        <v>288663.9082929197</v>
       </c>
       <c r="M4" t="n">
-        <v>287832.9329912872</v>
+        <v>287832.9329912873</v>
       </c>
       <c r="N4" t="n">
-        <v>287832.9329912872</v>
+        <v>287832.9329912873</v>
       </c>
       <c r="O4" t="n">
         <v>287832.9329912872</v>
@@ -26476,22 +26476,22 @@
         <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>37159.03486009495</v>
+        <v>37159.03486009494</v>
       </c>
       <c r="F5" t="n">
-        <v>37159.03486009495</v>
+        <v>37159.03486009494</v>
       </c>
       <c r="G5" t="n">
-        <v>46147.53928452419</v>
+        <v>46147.53928452418</v>
       </c>
       <c r="H5" t="n">
-        <v>46147.53928452419</v>
+        <v>46147.53928452418</v>
       </c>
       <c r="I5" t="n">
-        <v>46147.53928452419</v>
+        <v>46147.53928452418</v>
       </c>
       <c r="J5" t="n">
-        <v>57124.38483605042</v>
+        <v>57124.38483605041</v>
       </c>
       <c r="K5" t="n">
         <v>57124.38483605042</v>
@@ -26500,7 +26500,7 @@
         <v>56176.2143942249</v>
       </c>
       <c r="M5" t="n">
-        <v>49428.16157254106</v>
+        <v>49428.16157254107</v>
       </c>
       <c r="N5" t="n">
         <v>49428.16157254107</v>
@@ -26522,43 +26522,43 @@
         <v>216480.6524946044</v>
       </c>
       <c r="C6" t="n">
-        <v>221608.9517988887</v>
+        <v>221608.9517988892</v>
       </c>
       <c r="D6" t="n">
-        <v>217731.7212805772</v>
+        <v>217731.7212805771</v>
       </c>
       <c r="E6" t="n">
-        <v>-21973.31186272088</v>
+        <v>-22274.93610960451</v>
       </c>
       <c r="F6" t="n">
-        <v>280743.6520465834</v>
+        <v>280442.0277996996</v>
       </c>
       <c r="G6" t="n">
-        <v>211127.4583136133</v>
+        <v>211127.4583136128</v>
       </c>
       <c r="H6" t="n">
         <v>296662.0018379015</v>
       </c>
       <c r="I6" t="n">
-        <v>296662.0018379012</v>
+        <v>296662.0018379015</v>
       </c>
       <c r="J6" t="n">
-        <v>174143.2922028855</v>
+        <v>174143.2922028856</v>
       </c>
       <c r="K6" t="n">
-        <v>290396.9381418391</v>
+        <v>290396.9381418395</v>
       </c>
       <c r="L6" t="n">
-        <v>200907.0923152651</v>
+        <v>200907.0923152646</v>
       </c>
       <c r="M6" t="n">
-        <v>217185.306041229</v>
+        <v>217185.3060412289</v>
       </c>
       <c r="N6" t="n">
-        <v>299046.277080991</v>
+        <v>299046.2770809906</v>
       </c>
       <c r="O6" t="n">
-        <v>263651.8740125311</v>
+        <v>263651.8740125315</v>
       </c>
       <c r="P6" t="n">
         <v>299046.2770809908</v>
@@ -26698,13 +26698,13 @@
         <v>126.1110112999687</v>
       </c>
       <c r="G2" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="H2" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="I2" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="J2" t="n">
         <v>151.161183240935</v>
@@ -26716,10 +26716,10 @@
         <v>157.4431996385866</v>
       </c>
       <c r="M2" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="N2" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="O2" t="n">
         <v>204.0225846370551</v>
@@ -26796,22 +26796,22 @@
         <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>393.9372067336568</v>
+        <v>393.9372067336565</v>
       </c>
       <c r="F4" t="n">
-        <v>393.9372067336568</v>
+        <v>393.9372067336565</v>
       </c>
       <c r="G4" t="n">
-        <v>393.9372067336568</v>
+        <v>393.9372067336565</v>
       </c>
       <c r="H4" t="n">
-        <v>393.9372067336568</v>
+        <v>393.9372067336565</v>
       </c>
       <c r="I4" t="n">
-        <v>393.9372067336568</v>
+        <v>393.9372067336565</v>
       </c>
       <c r="J4" t="n">
-        <v>687.6774546127747</v>
+        <v>687.6774546127746</v>
       </c>
       <c r="K4" t="n">
         <v>687.6774546127747</v>
@@ -26826,10 +26826,10 @@
         <v>488.0026451147519</v>
       </c>
       <c r="O4" t="n">
-        <v>488.0026451147519</v>
+        <v>488.002645114752</v>
       </c>
       <c r="P4" t="n">
-        <v>488.0026451147519</v>
+        <v>488.002645114752</v>
       </c>
     </row>
   </sheetData>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.24300383557468</v>
+        <v>44.24300383557463</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>113.2001958030119</v>
+        <v>113.200195803012</v>
       </c>
       <c r="M2" t="n">
-        <v>46.57938499846853</v>
+        <v>46.57938499846861</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.24300383557468</v>
+        <v>44.24300383557451</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>24.28113944670554</v>
       </c>
       <c r="E4" t="n">
-        <v>354.3533297718162</v>
+        <v>354.3533297718159</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>309.042985394253</v>
+        <v>309.0429853942531</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>178.9596597204989</v>
+        <v>178.9596597204987</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.24300383557468</v>
+        <v>44.24300383557463</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>24.28113944670554</v>
       </c>
       <c r="M4" t="n">
-        <v>354.3533297718162</v>
+        <v>354.3533297718159</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>195.2077976476736</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27421,16 +27421,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>134.5663804260146</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>213.1397959419893</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>157.4057614731807</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27512,10 +27512,10 @@
         <v>186.6860774914907</v>
       </c>
       <c r="U3" t="n">
-        <v>210.6386445658398</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.3533289786064</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>152.6882418433237</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.1477374121232</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27579,10 +27579,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27591,10 +27591,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>271.0162918413558</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>238.6589921204971</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>366.6276325571267</v>
       </c>
       <c r="F5" t="n">
-        <v>391.5733082265764</v>
+        <v>393.3973945383805</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,7 +27661,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>136.3904667378187</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>193.7173320711103</v>
@@ -27701,22 +27701,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>144.9130205783279</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>122.0407796480756</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>96.93270672136141</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27752,16 +27752,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>236.3922456457846</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>192.2040445739734</v>
       </c>
     </row>
     <row r="7">
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>130.1183105077962</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>148.7485213041086</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27819,7 +27819,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>163.8147401738385</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27831,10 +27831,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>236.834905808693</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>271.220260821456</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>347.0648912442726</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>367.2921687798708</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>326.7881065446244</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27898,7 +27898,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27947,13 +27947,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>160.580851732981</v>
+        <v>165.2992498668324</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>171.6540977017462</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28026,10 +28026,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>152.2496201461753</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28050,13 +28050,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>137.7095144153289</v>
+        <v>170.0372797510117</v>
       </c>
       <c r="S10" t="n">
         <v>184.4327210751317</v>
@@ -28068,7 +28068,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
     <row r="11">
@@ -28111,7 +28111,7 @@
         <v>126.1110112999687</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>77.67197936280509</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28132,10 +28132,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>71.24693919557546</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>126.1110112999687</v>
+        <v>119.6859711327381</v>
       </c>
       <c r="S11" t="n">
         <v>126.1110112999687</v>
@@ -28166,13 +28166,13 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
         <v>126.1110112999687</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
       <c r="D12" t="n">
-        <v>2.830917927578355</v>
+        <v>126.1110112999687</v>
       </c>
       <c r="E12" t="n">
         <v>126.1110112999687</v>
@@ -28181,7 +28181,7 @@
         <v>126.1110112999687</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>126.1110112999687</v>
       </c>
       <c r="H12" t="n">
         <v>109.7524995282011</v>
@@ -28220,19 +28220,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.830917927579151</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>126.1110112999687</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>126.1110112999687</v>
-      </c>
-      <c r="W12" t="n">
-        <v>126.1110112999687</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>126.1110112999687</v>
@@ -28348,7 +28348,7 @@
         <v>126.1110112999687</v>
       </c>
       <c r="J14" t="n">
-        <v>71.24693919557555</v>
+        <v>77.67197936280509</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>126.1110112999687</v>
+        <v>119.6859711327381</v>
       </c>
       <c r="S14" t="n">
         <v>126.1110112999687</v>
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>126.1110112999687</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>126.1110112999687</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2.830917927579179</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>126.1110112999687</v>
       </c>
       <c r="G15" t="n">
-        <v>112.5834174557796</v>
+        <v>126.1110112999687</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.7524995282011</v>
       </c>
       <c r="I15" t="n">
         <v>80.54508155254207</v>
@@ -28454,22 +28454,22 @@
         <v>84.19572457470093</v>
       </c>
       <c r="S15" t="n">
-        <v>126.1110112999687</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>126.1110112999687</v>
       </c>
       <c r="U15" t="n">
-        <v>126.1110112999687</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>126.1110112999687</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>126.1110112999687</v>
       </c>
       <c r="X15" t="n">
-        <v>126.1110112999687</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>126.1110112999687</v>
@@ -28515,10 +28515,10 @@
         <v>126.1110112999687</v>
       </c>
       <c r="M16" t="n">
-        <v>126.111011299969</v>
+        <v>126.1110112999687</v>
       </c>
       <c r="N16" t="n">
-        <v>126.1110112999687</v>
+        <v>126.1110112999684</v>
       </c>
       <c r="O16" t="n">
         <v>126.1110112999687</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="C17" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="D17" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="E17" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="F17" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="G17" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="H17" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="I17" t="n">
-        <v>233.0291907053289</v>
+        <v>191.9514509525119</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28603,7 +28603,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>77.67197936280496</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>119.6859711327381</v>
       </c>
       <c r="S17" t="n">
-        <v>233.0291907053289</v>
+        <v>198.0706980797215</v>
       </c>
       <c r="T17" t="n">
-        <v>222.6282120715052</v>
+        <v>220.9924650871239</v>
       </c>
       <c r="U17" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="V17" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="W17" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="X17" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="Y17" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
     </row>
     <row r="18">
@@ -28643,16 +28643,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.0864275203899</v>
@@ -28661,7 +28661,7 @@
         <v>109.7524995282011</v>
       </c>
       <c r="I18" t="n">
-        <v>80.54508155254207</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,22 +28688,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>84.19572457470093</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>166.9078437470573</v>
       </c>
       <c r="T18" t="n">
-        <v>199.1284770204695</v>
+        <v>35.52669617347127</v>
       </c>
       <c r="U18" t="n">
-        <v>79.77095589065746</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>233.029190705329</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>68.11389929121523</v>
       </c>
       <c r="R19" t="n">
-        <v>167.6021396098771</v>
+        <v>7.991448645585905</v>
       </c>
       <c r="S19" t="n">
         <v>220.2604052270452</v>
@@ -28776,13 +28776,13 @@
         <v>227.0246657868283</v>
       </c>
       <c r="U19" t="n">
-        <v>73.41849974103795</v>
+        <v>233.029190705329</v>
       </c>
       <c r="V19" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="W19" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="C20" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="D20" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="E20" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="F20" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="G20" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="H20" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="I20" t="n">
-        <v>233.0291907053289</v>
+        <v>191.9514509525119</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28834,7 +28834,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>77.67197936280508</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>119.6859711327381</v>
       </c>
       <c r="S20" t="n">
-        <v>233.0291907053289</v>
+        <v>198.0706980797215</v>
       </c>
       <c r="T20" t="n">
-        <v>222.6282120715052</v>
+        <v>220.9924650871239</v>
       </c>
       <c r="U20" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="V20" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="W20" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="X20" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
     </row>
     <row r="21">
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>140.5684450242639</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28889,13 +28889,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.0864275203899</v>
       </c>
       <c r="H21" t="n">
-        <v>109.7524995282011</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>80.54508155254207</v>
@@ -28934,16 +28934,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>157.7871218057134</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>20.2212892176461</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -28968,7 +28968,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.7754440381186</v>
@@ -29013,13 +29013,13 @@
         <v>227.0246657868283</v>
       </c>
       <c r="U22" t="n">
-        <v>218.8395477639692</v>
+        <v>233.029190705329</v>
       </c>
       <c r="V22" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="W22" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="C23" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="D23" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="E23" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="F23" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="G23" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="H23" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="I23" t="n">
         <v>191.9514509525119</v>
@@ -29074,7 +29074,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>77.67197936280581</v>
+        <v>30.67676111899215</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>119.6859711327381</v>
       </c>
       <c r="S23" t="n">
-        <v>198.0706980797215</v>
+        <v>233.029190705329</v>
       </c>
       <c r="T23" t="n">
-        <v>220.9924650871239</v>
+        <v>233.029190705329</v>
       </c>
       <c r="U23" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="V23" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="W23" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="X23" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
     </row>
     <row r="24">
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>106.8061320831353</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29132,7 +29132,7 @@
         <v>137.0864275203899</v>
       </c>
       <c r="H24" t="n">
-        <v>109.7524995282011</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>80.54508155254207</v>
@@ -29171,19 +29171,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>191.9966761328032</v>
+        <v>225.924468288684</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>233.029190705329</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29241,22 +29241,22 @@
         <v>68.11389929121523</v>
       </c>
       <c r="R25" t="n">
-        <v>7.991448645586132</v>
+        <v>167.6021396098771</v>
       </c>
       <c r="S25" t="n">
-        <v>220.2604052270452</v>
+        <v>60.64971426275395</v>
       </c>
       <c r="T25" t="n">
         <v>227.0246657868283</v>
       </c>
       <c r="U25" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="V25" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="W25" t="n">
-        <v>233.0291907053289</v>
+        <v>233.029190705329</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29351,19 +29351,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>23.99267961335804</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>151.161183240935</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>151.161183240935</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.0864275203899</v>
@@ -29402,13 +29402,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>14.18459108951043</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>151.161183240935</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>151.161183240935</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29439,10 +29439,10 @@
         <v>151.161183240935</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>151.161183240935</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>151.161183240935</v>
       </c>
       <c r="G28" t="n">
         <v>151.161183240935</v>
@@ -29454,25 +29454,25 @@
         <v>148.9687400210304</v>
       </c>
       <c r="J28" t="n">
+        <v>78.12083296862735</v>
+      </c>
+      <c r="K28" t="n">
         <v>151.161183240935</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>91.31850345107475</v>
+        <v>151.161183240935</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>151.161183240935</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>151.161183240935</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>151.161183240935</v>
+        <v>2.730314670077863</v>
       </c>
       <c r="Q28" t="n">
         <v>68.11389929121523</v>
@@ -29554,7 +29554,7 @@
         <v>151.161183240935</v>
       </c>
       <c r="Q29" t="n">
-        <v>151.161183240935</v>
+        <v>151.1611832409355</v>
       </c>
       <c r="R29" t="n">
         <v>151.161183240935</v>
@@ -29591,16 +29591,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>151.161183240935</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>16.62591891490302</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>151.161183240935</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>17.900708765807</v>
       </c>
       <c r="G30" t="n">
         <v>137.0864275203899</v>
@@ -29609,7 +29609,7 @@
         <v>109.7524995282011</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.54508155254207</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>84.19572457470093</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29651,7 +29651,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>151.161183240935</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -29673,13 +29673,13 @@
         <v>151.161183240935</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>151.161183240935</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>151.161183240935</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>151.161183240935</v>
       </c>
       <c r="G31" t="n">
         <v>151.161183240935</v>
@@ -29694,25 +29694,25 @@
         <v>78.12083296862735</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>151.161183240935</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>2.730314670077938</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>151.161183240935</v>
       </c>
       <c r="N31" t="n">
-        <v>83.85727999638529</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>151.161183240935</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>151.161183240935</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.161183240935</v>
+        <v>68.11389929121523</v>
       </c>
       <c r="R31" t="n">
         <v>151.161183240935</v>
@@ -29785,10 +29785,10 @@
         <v>157.4431996385866</v>
       </c>
       <c r="O32" t="n">
+        <v>4.761550412160943</v>
+      </c>
+      <c r="P32" t="n">
         <v>157.4431996385866</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4.761550412160773</v>
       </c>
       <c r="Q32" t="n">
         <v>157.4431996385866</v>
@@ -29831,19 +29831,19 @@
         <v>157.4431996385866</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>75.88362344909784</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0864275203899</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.7524995282011</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>84.19572457470093</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29882,19 +29882,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>103.4557476035516</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>157.4431996385866</v>
       </c>
       <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>157.4431996385866</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29913,10 +29913,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>157.4431996385866</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>147.8797350482194</v>
       </c>
       <c r="G34" t="n">
         <v>157.4431996385866</v>
@@ -29928,13 +29928,13 @@
         <v>148.9687400210304</v>
       </c>
       <c r="J34" t="n">
-        <v>78.12083296862735</v>
+        <v>157.4431996385866</v>
       </c>
       <c r="K34" t="n">
-        <v>145.5396291239682</v>
+        <v>157.4431996385866</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>52.74933843670356</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>157.4431996385866</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29983,34 +29983,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="C35" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="D35" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="E35" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="F35" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="G35" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="H35" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="I35" t="n">
-        <v>204.0225846370551</v>
+        <v>191.9514509525119</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30025,34 +30025,34 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="Q35" t="n">
-        <v>143.7508907309642</v>
+        <v>36.13605328276905</v>
       </c>
       <c r="R35" t="n">
-        <v>204.0225846370551</v>
+        <v>119.6859711327381</v>
       </c>
       <c r="S35" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="T35" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="V35" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="W35" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="X35" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="Y35" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
     </row>
     <row r="36">
@@ -30062,16 +30062,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>48.5608539909076</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.7524995282011</v>
       </c>
       <c r="I36" t="n">
         <v>80.54508155254207</v>
@@ -30110,13 +30110,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>84.19572457470093</v>
       </c>
       <c r="S36" t="n">
         <v>166.9078437470573</v>
       </c>
       <c r="T36" t="n">
-        <v>177.0434558269271</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>204.0225846370551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>182.7889931880747</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30153,7 +30153,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>148.3780610290681</v>
       </c>
       <c r="G37" t="n">
         <v>167.7754440381186</v>
@@ -30192,25 +30192,25 @@
         <v>167.6021396098771</v>
       </c>
       <c r="S37" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="T37" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="U37" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="V37" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="W37" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="X37" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="Y37" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
     </row>
     <row r="38">
@@ -30220,31 +30220,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="C38" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="D38" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="E38" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="F38" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="G38" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="H38" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="I38" t="n">
-        <v>204.0225846370551</v>
+        <v>191.9514509525119</v>
       </c>
       <c r="J38" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30253,7 +30253,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>42.08793984010276</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30262,34 +30262,34 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="Q38" t="n">
-        <v>143.7508907309642</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>204.0225846370551</v>
+        <v>119.6859711327381</v>
       </c>
       <c r="S38" t="n">
-        <v>204.0225846370551</v>
+        <v>198.0706980797215</v>
       </c>
       <c r="T38" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="V38" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="W38" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="X38" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="Y38" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
     </row>
     <row r="39">
@@ -30302,22 +30302,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>6.163507465804088</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0864275203899</v>
       </c>
       <c r="H39" t="n">
-        <v>109.7524995282011</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>80.54508155254207</v>
@@ -30353,10 +30353,10 @@
         <v>166.9078437470573</v>
       </c>
       <c r="T39" t="n">
-        <v>199.1284770204695</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>154.5225229904776</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30381,13 +30381,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>170.2038341047647</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>149.3909756527066</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -30429,25 +30429,25 @@
         <v>167.6021396098771</v>
       </c>
       <c r="S40" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="T40" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="U40" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="V40" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="W40" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="X40" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
       <c r="Y40" t="n">
-        <v>204.0225846370551</v>
+        <v>204.0225846370552</v>
       </c>
     </row>
     <row r="41">
@@ -30478,11 +30478,11 @@
         <v>204.0225846370551</v>
       </c>
       <c r="I41" t="n">
+        <v>191.9514509525119</v>
+      </c>
+      <c r="J41" t="n">
         <v>204.0225846370551</v>
       </c>
-      <c r="J41" t="n">
-        <v>143.7508907309644</v>
-      </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
@@ -30493,19 +30493,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>36.13605328276958</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>204.0225846370551</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>204.0225846370551</v>
+        <v>119.6859711327381</v>
       </c>
       <c r="S41" t="n">
         <v>204.0225846370551</v>
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0864275203899</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.7524995282011</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.54508155254207</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,16 +30584,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>84.19572457470093</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.9078437470573</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>12.54198785350215</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>204.0225846370551</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30602,7 +30602,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>150.7203207552257</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2.957013006137657</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>68.11389929121523</v>
       </c>
       <c r="R43" t="n">
-        <v>170.5591526160146</v>
+        <v>167.6021396098771</v>
       </c>
       <c r="S43" t="n">
         <v>204.0225846370551</v>
@@ -30721,16 +30721,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>204.0225846370551</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>184.4639206234148</v>
       </c>
       <c r="N44" t="n">
-        <v>143.7508907309645</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30739,10 +30739,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>204.0225846370551</v>
+        <v>43.6235836118668</v>
       </c>
       <c r="R44" t="n">
-        <v>204.0225846370551</v>
+        <v>119.6859711327381</v>
       </c>
       <c r="S44" t="n">
         <v>204.0225846370551</v>
@@ -30776,7 +30776,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>118.5763437818765</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.0864275203899</v>
@@ -30821,19 +30821,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>84.19572457470093</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.9078437470573</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>12.54198785350192</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
         <v>204.0225846370551</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>68.11389929121523</v>
       </c>
       <c r="R46" t="n">
-        <v>170.5591526160146</v>
+        <v>170.5591526160148</v>
       </c>
       <c r="S46" t="n">
         <v>204.0225846370551</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="O2" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="P2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,7 +34790,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>15.30273751513505</v>
@@ -34863,13 +34863,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M4" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="N4" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O4" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,7 +34945,7 @@
         <v>14.68444509028111</v>
       </c>
       <c r="N5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>15.30273751513505</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="Q6" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="N6" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="O6" t="n">
-        <v>14.68444509028111</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,10 +35179,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="N8" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="O8" t="n">
         <v>39.58387696184059</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M9" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>28.83246467289503</v>
+        <v>106.5044440357001</v>
       </c>
       <c r="K11" t="n">
         <v>165.176839234269</v>
@@ -35428,10 +35428,10 @@
         <v>159.662072673043</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.1447289453807</v>
+        <v>41.89778974980523</v>
       </c>
       <c r="R11" t="n">
-        <v>6.425040167230531</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>168.1381374230104</v>
       </c>
       <c r="L12" t="n">
         <v>288.1071180141211</v>
@@ -35498,16 +35498,16 @@
         <v>388.7116818707706</v>
       </c>
       <c r="N12" t="n">
-        <v>393.9372067336568</v>
+        <v>393.9372067336565</v>
       </c>
       <c r="O12" t="n">
         <v>312.4342408590321</v>
       </c>
       <c r="P12" t="n">
-        <v>73.72914360085663</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>102.9127810386684</v>
+        <v>8.503787216514095</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.9901783313413</v>
+        <v>47.99017833134133</v>
       </c>
       <c r="K13" t="n">
         <v>128.8828048735998</v>
@@ -35574,7 +35574,7 @@
         <v>185.7452604588491</v>
       </c>
       <c r="M13" t="n">
-        <v>199.4810294311222</v>
+        <v>199.4810294311223</v>
       </c>
       <c r="N13" t="n">
         <v>203.2259659272426</v>
@@ -35586,7 +35586,7 @@
         <v>149.4575878539963</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.99711200875342</v>
+        <v>57.99711200875345</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0794038684706</v>
+        <v>106.5044440357001</v>
       </c>
       <c r="K14" t="n">
         <v>165.176839234269</v>
@@ -35668,7 +35668,7 @@
         <v>41.89778974980523</v>
       </c>
       <c r="R14" t="n">
-        <v>6.425040167230531</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>23.54274198954131</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>288.1071180141211</v>
+        <v>104.7123124825891</v>
       </c>
       <c r="M15" t="n">
         <v>388.7116818707706</v>
       </c>
       <c r="N15" t="n">
-        <v>393.9372067336568</v>
+        <v>393.9372067336565</v>
       </c>
       <c r="O15" t="n">
         <v>312.4342408590321</v>
       </c>
       <c r="P15" t="n">
-        <v>176.641924639525</v>
+        <v>233.5812071428468</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>102.9127810386684</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.9901783313413</v>
+        <v>47.99017833134133</v>
       </c>
       <c r="K16" t="n">
         <v>128.8828048735998</v>
@@ -35811,19 +35811,19 @@
         <v>185.7452604588491</v>
       </c>
       <c r="M16" t="n">
-        <v>199.4810294311226</v>
+        <v>199.4810294311223</v>
       </c>
       <c r="N16" t="n">
-        <v>203.2259659272426</v>
+        <v>203.2259659272423</v>
       </c>
       <c r="O16" t="n">
-        <v>181.1610770380806</v>
+        <v>181.1610770380807</v>
       </c>
       <c r="P16" t="n">
         <v>149.4575878539963</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.99711200875342</v>
+        <v>57.99711200875345</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.07773975281708</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>28.83246467289503</v>
@@ -35899,7 +35899,7 @@
         <v>231.6606497497726</v>
       </c>
       <c r="P17" t="n">
-        <v>159.662072673043</v>
+        <v>237.334052035848</v>
       </c>
       <c r="Q17" t="n">
         <v>41.89778974980523</v>
@@ -35908,10 +35908,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.95849262560745</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.635746984381301</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>168.1381374230104</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.1071180141211</v>
       </c>
       <c r="M18" t="n">
-        <v>388.7116818707706</v>
+        <v>349.6129797752603</v>
       </c>
       <c r="N18" t="n">
-        <v>393.9372067336568</v>
+        <v>393.9372067336565</v>
       </c>
       <c r="O18" t="n">
-        <v>312.4342408590321</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>233.5812071428468</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.48695609824771</v>
+        <v>102.9127810386684</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.07773975281708</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>28.83246467289503</v>
@@ -36130,7 +36130,7 @@
         <v>303.5387244913372</v>
       </c>
       <c r="N20" t="n">
-        <v>293.6705028927522</v>
+        <v>371.3424822555572</v>
       </c>
       <c r="O20" t="n">
         <v>231.6606497497726</v>
@@ -36145,10 +36145,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.95849262560745</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.635746984381301</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>23.54274198954131</v>
       </c>
       <c r="K21" t="n">
-        <v>104.7123124825897</v>
+        <v>168.1381374230104</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.1071180141211</v>
       </c>
       <c r="M21" t="n">
         <v>388.7116818707706</v>
       </c>
       <c r="N21" t="n">
-        <v>393.9372067336568</v>
+        <v>42.40426377911414</v>
       </c>
       <c r="O21" t="n">
         <v>312.4342408590321</v>
@@ -36370,7 +36370,7 @@
         <v>293.6705028927522</v>
       </c>
       <c r="O23" t="n">
-        <v>309.3326291125784</v>
+        <v>262.3374108687647</v>
       </c>
       <c r="P23" t="n">
         <v>159.662072673043</v>
@@ -36382,10 +36382,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>34.95849262560753</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>12.03672561820516</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>23.54274198954131</v>
       </c>
       <c r="K24" t="n">
-        <v>168.1381374230104</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>288.1071180141211</v>
       </c>
       <c r="M24" t="n">
-        <v>163.6342619444386</v>
+        <v>388.7116818707706</v>
       </c>
       <c r="N24" t="n">
-        <v>393.9372067336568</v>
+        <v>393.9372067336565</v>
       </c>
       <c r="O24" t="n">
-        <v>312.4342408590321</v>
+        <v>129.0394353274999</v>
       </c>
       <c r="P24" t="n">
         <v>233.5812071428468</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>102.9127810386684</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>408.8823325313602</v>
       </c>
       <c r="M26" t="n">
-        <v>454.6999077322722</v>
+        <v>454.6999077322723</v>
       </c>
       <c r="N26" t="n">
         <v>444.8316861336871</v>
@@ -36735,10 +36735,10 @@
         <v>2.545710222722619</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>4.727220594365804</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>5.740135218003729</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.04035027230762</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2.77179357363115</v>
+        <v>153.9329768145661</v>
       </c>
       <c r="L28" t="n">
-        <v>150.9527526099552</v>
+        <v>210.7954323998154</v>
       </c>
       <c r="M28" t="n">
-        <v>73.37001813115359</v>
+        <v>224.5312013720886</v>
       </c>
       <c r="N28" t="n">
         <v>77.11495462727395</v>
       </c>
       <c r="O28" t="n">
-        <v>206.211248979047</v>
+        <v>55.05006573811197</v>
       </c>
       <c r="P28" t="n">
-        <v>174.5077597949626</v>
+        <v>26.07689122410549</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36850,10 +36850,10 @@
         <v>310.823255913978</v>
       </c>
       <c r="Q29" t="n">
-        <v>193.0589729907402</v>
+        <v>193.0589729907407</v>
       </c>
       <c r="R29" t="n">
-        <v>31.47521210819686</v>
+        <v>31.47521210819685</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2.545710222722619</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>4.727220594365804</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>5.740135218003729</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>2.77179357363115</v>
+        <v>153.9329768145661</v>
       </c>
       <c r="L31" t="n">
-        <v>59.63424915888047</v>
+        <v>62.36456382895841</v>
       </c>
       <c r="M31" t="n">
-        <v>73.37001813115359</v>
+        <v>224.5312013720886</v>
       </c>
       <c r="N31" t="n">
-        <v>160.9722346236592</v>
+        <v>77.11495462727395</v>
       </c>
       <c r="O31" t="n">
-        <v>206.211248979047</v>
+        <v>55.05006573811197</v>
       </c>
       <c r="P31" t="n">
         <v>174.5077597949626</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.04728394971974</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,10 +37081,10 @@
         <v>451.1137025313388</v>
       </c>
       <c r="O32" t="n">
-        <v>389.1038493883592</v>
+        <v>236.4222001619335</v>
       </c>
       <c r="P32" t="n">
-        <v>164.4236230852038</v>
+        <v>317.1052723116296</v>
       </c>
       <c r="Q32" t="n">
         <v>199.3409893883918</v>
@@ -37209,10 +37209,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>11.00923699201743</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2.45868702528812</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>79.32236666995925</v>
       </c>
       <c r="K34" t="n">
-        <v>148.3114226975994</v>
+        <v>160.2149932122178</v>
       </c>
       <c r="L34" t="n">
-        <v>59.63424915888047</v>
+        <v>112.383587595584</v>
       </c>
       <c r="M34" t="n">
         <v>73.37001813115359</v>
@@ -37239,7 +37239,7 @@
         <v>77.11495462727395</v>
       </c>
       <c r="O34" t="n">
-        <v>212.4932653766986</v>
+        <v>55.05006573811197</v>
       </c>
       <c r="P34" t="n">
         <v>23.34657655402762</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>12.07113368454327</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>28.83246467289503</v>
       </c>
       <c r="K35" t="n">
-        <v>165.176839234269</v>
+        <v>369.1994238713242</v>
       </c>
       <c r="L35" t="n">
         <v>257.7211492904253</v>
@@ -37321,16 +37321,16 @@
         <v>231.6606497497726</v>
       </c>
       <c r="P35" t="n">
-        <v>363.6846573100981</v>
+        <v>363.6846573100983</v>
       </c>
       <c r="Q35" t="n">
-        <v>185.6486804807694</v>
+        <v>78.03384303257428</v>
       </c>
       <c r="R35" t="n">
-        <v>84.33661350431701</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>5.951886557333637</v>
+        <v>5.951886557333722</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>23.54274198954094</v>
+        <v>23.54274198954131</v>
       </c>
       <c r="K36" t="n">
         <v>168.1381374230104</v>
@@ -37391,7 +37391,7 @@
         <v>288.1071180141211</v>
       </c>
       <c r="M36" t="n">
-        <v>388.7116818707706</v>
+        <v>388.7116818707707</v>
       </c>
       <c r="N36" t="n">
         <v>414.8653935305222</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.957013006137438</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2.957013006136865</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>12.07113368454327</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>232.8550493099502</v>
@@ -37549,7 +37549,7 @@
         <v>257.7211492904253</v>
       </c>
       <c r="M38" t="n">
-        <v>303.5387244913372</v>
+        <v>345.62666433144</v>
       </c>
       <c r="N38" t="n">
         <v>293.6705028927522</v>
@@ -37558,16 +37558,16 @@
         <v>231.6606497497726</v>
       </c>
       <c r="P38" t="n">
-        <v>159.662072673043</v>
+        <v>363.6846573100983</v>
       </c>
       <c r="Q38" t="n">
-        <v>185.6486804807694</v>
+        <v>41.89778974980523</v>
       </c>
       <c r="R38" t="n">
-        <v>84.33661350431701</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>5.951886557333637</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37677,13 +37677,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2.957013006136865</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.957013006137438</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>12.07113368454327</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>172.5833554038594</v>
+        <v>232.8550493099501</v>
       </c>
       <c r="K41" t="n">
         <v>165.176839234269</v>
@@ -37789,22 +37789,22 @@
         <v>303.5387244913372</v>
       </c>
       <c r="N41" t="n">
-        <v>293.6705028927522</v>
+        <v>329.8065561755217</v>
       </c>
       <c r="O41" t="n">
-        <v>231.6606497497726</v>
+        <v>435.6832343868277</v>
       </c>
       <c r="P41" t="n">
         <v>159.662072673043</v>
       </c>
       <c r="Q41" t="n">
-        <v>245.9203743868604</v>
+        <v>41.89778974980523</v>
       </c>
       <c r="R41" t="n">
-        <v>84.33661350431701</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.951886557333637</v>
+        <v>5.951886557333609</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>77.11495462727395</v>
       </c>
       <c r="O43" t="n">
-        <v>55.05006573811197</v>
+        <v>58.00707874424963</v>
       </c>
       <c r="P43" t="n">
         <v>23.34657655402762</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.957013006137417</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,22 +38011,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>12.07113368454327</v>
+        <v>12.07113368454324</v>
       </c>
       <c r="J44" t="n">
         <v>28.83246467289503</v>
       </c>
       <c r="K44" t="n">
-        <v>165.176839234269</v>
+        <v>369.1994238713241</v>
       </c>
       <c r="L44" t="n">
         <v>257.7211492904253</v>
       </c>
       <c r="M44" t="n">
-        <v>303.5387244913372</v>
+        <v>488.002645114752</v>
       </c>
       <c r="N44" t="n">
-        <v>437.4213936237167</v>
+        <v>293.6705028927522</v>
       </c>
       <c r="O44" t="n">
         <v>231.6606497497726</v>
@@ -38035,13 +38035,13 @@
         <v>159.662072673043</v>
       </c>
       <c r="Q44" t="n">
-        <v>245.9203743868604</v>
+        <v>85.52137336167203</v>
       </c>
       <c r="R44" t="n">
-        <v>84.33661350431701</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.951886557333637</v>
+        <v>5.951886557333609</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.957013006137417</v>
+        <v>2.957013006137647</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
